--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F6177-5883-44D7-9E7E-B69EF37AB415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1346F4A-305F-4980-B31C-5C9BA7F6E151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="945" yWindow="3660" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,19 +612,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="27.375" style="1" customWidth="1"/>
@@ -1347,7 +1356,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -1380,7 +1389,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1413,7 +1422,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="13">
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -1446,7 +1455,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -1479,7 +1488,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -1512,7 +1521,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="13">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1545,7 +1554,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -1578,7 +1587,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -1611,7 +1620,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+      <c r="A31" s="13">
         <v>29</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -1674,6 +1683,336 @@
       </c>
       <c r="J32" s="4">
         <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="10">
+        <v>14</v>
+      </c>
+      <c r="D33" s="10">
+        <v>210</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11">
+        <f>F32*1.8</f>
+        <v>6.413051659811547E+43</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="7">
+        <v>8</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="15">
+        <v>20</v>
+      </c>
+      <c r="D34" s="15">
+        <v>5500</v>
+      </c>
+      <c r="E34" s="15">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11">
+        <f>F33*1.8</f>
+        <v>1.1543492987660785E+44</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="12">
+        <v>8</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="19">
+        <v>31</v>
+      </c>
+      <c r="D35" s="19">
+        <v>7</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" ref="F35:F42" si="1">F34*1.8</f>
+        <v>2.0778287377789415E+44</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="16">
+        <v>8</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="6">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6">
+        <v>110000000</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="1"/>
+        <v>3.7400917280020946E+44</v>
+      </c>
+      <c r="G36" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="20">
+        <v>8</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="10">
+        <v>14</v>
+      </c>
+      <c r="D37" s="10">
+        <v>230</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7321651104037705E+44</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="7">
+        <v>8</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="15">
+        <v>20</v>
+      </c>
+      <c r="D38" s="15">
+        <v>6000</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2117897198726787E+45</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="7">
+        <v>8</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>37</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="19">
+        <v>31</v>
+      </c>
+      <c r="D39" s="19">
+        <v>9</v>
+      </c>
+      <c r="E39" s="19">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="1"/>
+        <v>2.1812214957708217E+45</v>
+      </c>
+      <c r="G39" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="12">
+        <v>8</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="6">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6">
+        <v>120000000</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="1"/>
+        <v>3.9261986923874789E+45</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="16">
+        <v>8</v>
+      </c>
+      <c r="I40" s="15">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="10">
+        <v>14</v>
+      </c>
+      <c r="D41" s="10">
+        <v>250</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="1"/>
+        <v>7.0671576462974619E+45</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="7">
+        <v>8</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="15">
+        <v>20</v>
+      </c>
+      <c r="D42" s="15">
+        <v>6500</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2720883763335432E+46</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="12">
+        <v>8</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1346F4A-305F-4980-B31C-5C9BA7F6E151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7810F4-9F18-4FC1-AEF0-26F6FA2BB4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="3660" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +175,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +211,11 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -213,7 +226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -229,8 +242,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,12 +310,19 @@
     <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="강조색1" xfId="3" builtinId="29"/>
     <cellStyle name="강조색2" xfId="4" builtinId="33"/>
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="5" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1768,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="11">
-        <f t="shared" ref="F35:F42" si="1">F34*1.8</f>
+        <f t="shared" ref="F35:F52" si="1">F34*1.8</f>
         <v>2.0778287377789415E+44</v>
       </c>
       <c r="G35" s="16">
@@ -1983,7 +2006,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="21">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2013,6 +2036,336 @@
       </c>
       <c r="J42" s="8">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
+        <v>41</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="19">
+        <v>31</v>
+      </c>
+      <c r="D43" s="19">
+        <v>9</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1</v>
+      </c>
+      <c r="F43" s="22">
+        <f>F42*1.45</f>
+        <v>1.8445281456836375E+46</v>
+      </c>
+      <c r="G43" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="20">
+        <v>8</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0</v>
+      </c>
+      <c r="J43" s="17">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="6">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6">
+        <v>130000000</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="22">
+        <f t="shared" ref="F44:F52" si="2">F43*1.45</f>
+        <v>2.6745658112412745E+46</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="7">
+        <v>8</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="10">
+        <v>14</v>
+      </c>
+      <c r="D45" s="10">
+        <v>270</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="22">
+        <f t="shared" si="2"/>
+        <v>3.8781204262998481E+46</v>
+      </c>
+      <c r="G45" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="12">
+        <v>8</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>44</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="15">
+        <v>20</v>
+      </c>
+      <c r="D46" s="15">
+        <v>7000</v>
+      </c>
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
+      <c r="F46" s="22">
+        <f t="shared" si="2"/>
+        <v>5.6232746181347794E+46</v>
+      </c>
+      <c r="G46" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="16">
+        <v>8</v>
+      </c>
+      <c r="I46" s="15">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
+        <v>45</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="19">
+        <v>31</v>
+      </c>
+      <c r="D47" s="19">
+        <v>11</v>
+      </c>
+      <c r="E47" s="19">
+        <v>1</v>
+      </c>
+      <c r="F47" s="22">
+        <f t="shared" si="2"/>
+        <v>8.1537481962954295E+46</v>
+      </c>
+      <c r="G47" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="20">
+        <v>8</v>
+      </c>
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="17">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="6">
+        <v>5</v>
+      </c>
+      <c r="D48" s="6">
+        <v>140000000</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="22">
+        <f t="shared" si="2"/>
+        <v>1.1822934884628372E+47</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="7">
+        <v>8</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="10">
+        <v>14</v>
+      </c>
+      <c r="D49" s="10">
+        <v>290</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="22">
+        <f t="shared" si="2"/>
+        <v>1.7143255582711137E+47</v>
+      </c>
+      <c r="G49" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="12">
+        <v>8</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
+        <v>48</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="15">
+        <v>20</v>
+      </c>
+      <c r="D50" s="15">
+        <v>7500</v>
+      </c>
+      <c r="E50" s="15">
+        <v>1</v>
+      </c>
+      <c r="F50" s="22">
+        <f t="shared" si="2"/>
+        <v>2.4857720594931149E+47</v>
+      </c>
+      <c r="G50" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="16">
+        <v>8</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0</v>
+      </c>
+      <c r="J50" s="13">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17">
+        <v>49</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="19">
+        <v>31</v>
+      </c>
+      <c r="D51" s="19">
+        <v>11</v>
+      </c>
+      <c r="E51" s="19">
+        <v>1</v>
+      </c>
+      <c r="F51" s="22">
+        <f t="shared" si="2"/>
+        <v>3.6043694862650164E+47</v>
+      </c>
+      <c r="G51" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="20">
+        <v>8</v>
+      </c>
+      <c r="I51" s="19">
+        <v>0</v>
+      </c>
+      <c r="J51" s="17">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="6">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6">
+        <v>150000000</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="22">
+        <f t="shared" si="2"/>
+        <v>5.2263357550842732E+47</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="7">
+        <v>8</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7810F4-9F18-4FC1-AEF0-26F6FA2BB4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C774F-1E05-45A0-B149-AD2581406416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="39" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51" style="3" customWidth="1"/>
+    <col min="6" max="6" width="70.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="27.375" style="1" customWidth="1"/>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="11">
-        <f t="shared" ref="F35:F52" si="1">F34*1.8</f>
+        <f t="shared" ref="F35:F42" si="1">F34*1.8</f>
         <v>2.0778287377789415E+44</v>
       </c>
       <c r="G35" s="16">
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="22">
-        <f t="shared" ref="F44:F52" si="2">F43*1.45</f>
+        <f t="shared" ref="F44:F62" si="2">F43*1.45</f>
         <v>2.6745658112412745E+46</v>
       </c>
       <c r="G44" s="7">
@@ -2366,6 +2366,336 @@
       </c>
       <c r="J52" s="4">
         <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="10">
+        <v>14</v>
+      </c>
+      <c r="D53" s="10">
+        <v>300</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="22">
+        <f>F52*1.45</f>
+        <v>7.5781868448721959E+47</v>
+      </c>
+      <c r="G53" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="16">
+        <v>8</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="15">
+        <v>20</v>
+      </c>
+      <c r="D54" s="15">
+        <v>8000</v>
+      </c>
+      <c r="E54" s="10">
+        <v>1</v>
+      </c>
+      <c r="F54" s="22">
+        <f t="shared" si="2"/>
+        <v>1.0988370925064684E+48</v>
+      </c>
+      <c r="G54" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="20">
+        <v>8</v>
+      </c>
+      <c r="I54" s="19">
+        <v>0</v>
+      </c>
+      <c r="J54" s="17">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="19">
+        <v>31</v>
+      </c>
+      <c r="D55" s="19">
+        <v>13</v>
+      </c>
+      <c r="E55" s="15">
+        <v>1</v>
+      </c>
+      <c r="F55" s="22">
+        <f t="shared" si="2"/>
+        <v>1.5933137841343792E+48</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H55" s="7">
+        <v>8</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="17">
+        <v>54</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="6">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6">
+        <v>160000000</v>
+      </c>
+      <c r="E56" s="19">
+        <v>1</v>
+      </c>
+      <c r="F56" s="22">
+        <f t="shared" si="2"/>
+        <v>2.3103049869948496E+48</v>
+      </c>
+      <c r="G56" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H56" s="12">
+        <v>8</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="10">
+        <v>14</v>
+      </c>
+      <c r="D57" s="10">
+        <v>310</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="22">
+        <f t="shared" si="2"/>
+        <v>3.3499422311425316E+48</v>
+      </c>
+      <c r="G57" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="16">
+        <v>8</v>
+      </c>
+      <c r="I57" s="15">
+        <v>0</v>
+      </c>
+      <c r="J57" s="13">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="15">
+        <v>20</v>
+      </c>
+      <c r="D58" s="15">
+        <v>8500</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+      <c r="F58" s="22">
+        <f t="shared" si="2"/>
+        <v>4.8574162351566709E+48</v>
+      </c>
+      <c r="G58" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="20">
+        <v>8</v>
+      </c>
+      <c r="I58" s="19">
+        <v>0</v>
+      </c>
+      <c r="J58" s="17">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="19">
+        <v>31</v>
+      </c>
+      <c r="D59" s="19">
+        <v>13</v>
+      </c>
+      <c r="E59" s="15">
+        <v>1</v>
+      </c>
+      <c r="F59" s="22">
+        <f t="shared" si="2"/>
+        <v>7.0432535409771723E+48</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="7">
+        <v>8</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
+        <v>58</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="6">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6">
+        <v>170000000</v>
+      </c>
+      <c r="E60" s="19">
+        <v>1</v>
+      </c>
+      <c r="F60" s="22">
+        <f t="shared" si="2"/>
+        <v>1.02127176344169E+49</v>
+      </c>
+      <c r="G60" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="16">
+        <v>8</v>
+      </c>
+      <c r="I60" s="15">
+        <v>0</v>
+      </c>
+      <c r="J60" s="13">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="17">
+        <v>59</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="10">
+        <v>14</v>
+      </c>
+      <c r="D61" s="10">
+        <v>320</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="22">
+        <f t="shared" si="2"/>
+        <v>1.4808440569904505E+49</v>
+      </c>
+      <c r="G61" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="20">
+        <v>8</v>
+      </c>
+      <c r="I61" s="19">
+        <v>0</v>
+      </c>
+      <c r="J61" s="17">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="15">
+        <v>20</v>
+      </c>
+      <c r="D62" s="15">
+        <v>9000</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="22">
+        <f t="shared" si="2"/>
+        <v>2.1472238826361531E+49</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="7">
+        <v>8</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>14000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C774F-1E05-45A0-B149-AD2581406416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78565E04-ED16-450D-99BB-9945FDE7AE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="22">
-        <f t="shared" ref="F44:F62" si="2">F43*1.45</f>
+        <f t="shared" ref="F44:F72" si="2">F43*1.45</f>
         <v>2.6745658112412745E+46</v>
       </c>
       <c r="G44" s="7">
@@ -2696,6 +2696,336 @@
       </c>
       <c r="J62" s="4">
         <v>14000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="17">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="19">
+        <v>31</v>
+      </c>
+      <c r="D63" s="19">
+        <v>15</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="22">
+        <f>F62*1.45</f>
+        <v>3.113474629822422E+49</v>
+      </c>
+      <c r="G63" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H63" s="16">
+        <v>8</v>
+      </c>
+      <c r="I63" s="15">
+        <v>0</v>
+      </c>
+      <c r="J63" s="13">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="6">
+        <v>5</v>
+      </c>
+      <c r="D64" s="6">
+        <v>180000000</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1</v>
+      </c>
+      <c r="F64" s="22">
+        <f t="shared" si="2"/>
+        <v>4.5145382132425119E+49</v>
+      </c>
+      <c r="G64" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H64" s="20">
+        <v>8</v>
+      </c>
+      <c r="I64" s="19">
+        <v>0</v>
+      </c>
+      <c r="J64" s="17">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="10">
+        <v>14</v>
+      </c>
+      <c r="D65" s="10">
+        <v>330</v>
+      </c>
+      <c r="E65" s="15">
+        <v>1</v>
+      </c>
+      <c r="F65" s="22">
+        <f t="shared" si="2"/>
+        <v>6.5460804092016417E+49</v>
+      </c>
+      <c r="G65" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H65" s="7">
+        <v>8</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="15">
+        <v>20</v>
+      </c>
+      <c r="D66" s="15">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="19">
+        <v>1</v>
+      </c>
+      <c r="F66" s="22">
+        <f t="shared" si="2"/>
+        <v>9.4918165933423798E+49</v>
+      </c>
+      <c r="G66" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="12">
+        <v>8</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0</v>
+      </c>
+      <c r="J66" s="8">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="13">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="19">
+        <v>31</v>
+      </c>
+      <c r="D67" s="19">
+        <v>15</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="22">
+        <f t="shared" si="2"/>
+        <v>1.3763134060346451E+50</v>
+      </c>
+      <c r="G67" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H67" s="16">
+        <v>8</v>
+      </c>
+      <c r="I67" s="15">
+        <v>0</v>
+      </c>
+      <c r="J67" s="13">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="17">
+        <v>66</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="6">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6">
+        <v>190000000</v>
+      </c>
+      <c r="E68" s="10">
+        <v>1</v>
+      </c>
+      <c r="F68" s="22">
+        <f t="shared" si="2"/>
+        <v>1.9956544387502352E+50</v>
+      </c>
+      <c r="G68" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H68" s="20">
+        <v>8</v>
+      </c>
+      <c r="I68" s="19">
+        <v>0</v>
+      </c>
+      <c r="J68" s="17">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="10">
+        <v>14</v>
+      </c>
+      <c r="D69" s="10">
+        <v>340</v>
+      </c>
+      <c r="E69" s="15">
+        <v>1</v>
+      </c>
+      <c r="F69" s="22">
+        <f t="shared" si="2"/>
+        <v>2.8936989361878409E+50</v>
+      </c>
+      <c r="G69" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H69" s="7">
+        <v>8</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="15">
+        <v>20</v>
+      </c>
+      <c r="D70" s="15">
+        <v>10000</v>
+      </c>
+      <c r="E70" s="19">
+        <v>1</v>
+      </c>
+      <c r="F70" s="22">
+        <f t="shared" si="2"/>
+        <v>4.1958634574723692E+50</v>
+      </c>
+      <c r="G70" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H70" s="16">
+        <v>8</v>
+      </c>
+      <c r="I70" s="15">
+        <v>0</v>
+      </c>
+      <c r="J70" s="13">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="19">
+        <v>31</v>
+      </c>
+      <c r="D71" s="19">
+        <v>16</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="22">
+        <f t="shared" si="2"/>
+        <v>6.084002013334935E+50</v>
+      </c>
+      <c r="G71" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H71" s="20">
+        <v>8</v>
+      </c>
+      <c r="I71" s="19">
+        <v>0</v>
+      </c>
+      <c r="J71" s="17">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="6">
+        <v>5</v>
+      </c>
+      <c r="D72" s="6">
+        <v>200000000</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="22">
+        <f t="shared" si="2"/>
+        <v>8.8218029193356553E+50</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H72" s="7">
+        <v>8</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>16000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78565E04-ED16-450D-99BB-9945FDE7AE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E5351-22AD-4109-A7FF-ED0AED044A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,22 @@
     <t>34-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>60-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +232,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -226,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,8 +266,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,10 +340,17 @@
     <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="강조색1" xfId="3" builtinId="29"/>
     <cellStyle name="강조색2" xfId="4" builtinId="33"/>
+    <cellStyle name="강조색6" xfId="6" builtinId="49"/>
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="좋음" xfId="5" builtinId="26"/>
@@ -635,11 +666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2088,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="22">
-        <f t="shared" ref="F44:F72" si="2">F43*1.45</f>
+        <f t="shared" ref="F44:F92" si="2">F43*1.45</f>
         <v>2.6745658112412745E+46</v>
       </c>
       <c r="G44" s="7">
@@ -3026,6 +3057,666 @@
       </c>
       <c r="J72" s="4">
         <v>16000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="23">
+        <v>71</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="10">
+        <v>14</v>
+      </c>
+      <c r="D73" s="10">
+        <v>350</v>
+      </c>
+      <c r="E73" s="15">
+        <v>1</v>
+      </c>
+      <c r="F73" s="22">
+        <f>F72*1.3</f>
+        <v>1.1468343795136352E+51</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H73" s="7">
+        <v>8</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="17">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="15">
+        <v>20</v>
+      </c>
+      <c r="D74" s="15">
+        <v>10500</v>
+      </c>
+      <c r="E74" s="19">
+        <v>1</v>
+      </c>
+      <c r="F74" s="22">
+        <f t="shared" ref="F74:F92" si="3">F73*1.3</f>
+        <v>1.4908846933677259E+51</v>
+      </c>
+      <c r="G74" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H74" s="16">
+        <v>8</v>
+      </c>
+      <c r="I74" s="15">
+        <v>0</v>
+      </c>
+      <c r="J74" s="13">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="19">
+        <v>31</v>
+      </c>
+      <c r="D75" s="19">
+        <v>16</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="22">
+        <f t="shared" si="3"/>
+        <v>1.9381501013780435E+51</v>
+      </c>
+      <c r="G75" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H75" s="20">
+        <v>8</v>
+      </c>
+      <c r="I75" s="19">
+        <v>0</v>
+      </c>
+      <c r="J75" s="17">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="6">
+        <v>5</v>
+      </c>
+      <c r="D76" s="6">
+        <v>210000000</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="22">
+        <f t="shared" si="3"/>
+        <v>2.5195951317914565E+51</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="7">
+        <v>8</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="10">
+        <v>14</v>
+      </c>
+      <c r="D77" s="10">
+        <v>360</v>
+      </c>
+      <c r="E77" s="15">
+        <v>1</v>
+      </c>
+      <c r="F77" s="22">
+        <f t="shared" si="3"/>
+        <v>3.2754736713288935E+51</v>
+      </c>
+      <c r="G77" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H77" s="7">
+        <v>8</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="17">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="15">
+        <v>20</v>
+      </c>
+      <c r="D78" s="15">
+        <v>11000</v>
+      </c>
+      <c r="E78" s="19">
+        <v>1</v>
+      </c>
+      <c r="F78" s="22">
+        <f t="shared" si="3"/>
+        <v>4.2581157727275616E+51</v>
+      </c>
+      <c r="G78" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H78" s="16">
+        <v>8</v>
+      </c>
+      <c r="I78" s="15">
+        <v>0</v>
+      </c>
+      <c r="J78" s="13">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="19">
+        <v>31</v>
+      </c>
+      <c r="D79" s="19">
+        <v>17</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="22">
+        <f t="shared" si="3"/>
+        <v>5.5355505045458302E+51</v>
+      </c>
+      <c r="G79" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H79" s="20">
+        <v>8</v>
+      </c>
+      <c r="I79" s="19">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="6">
+        <v>5</v>
+      </c>
+      <c r="D80" s="6">
+        <v>220000000</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="22">
+        <f t="shared" si="3"/>
+        <v>7.196215655909579E+51</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H80" s="7">
+        <v>8</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="4">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="10">
+        <v>14</v>
+      </c>
+      <c r="D81" s="10">
+        <v>370</v>
+      </c>
+      <c r="E81" s="15">
+        <v>1</v>
+      </c>
+      <c r="F81" s="22">
+        <f t="shared" si="3"/>
+        <v>9.3550803526824533E+51</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H81" s="7">
+        <v>8</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="4">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="17">
+        <v>80</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="15">
+        <v>20</v>
+      </c>
+      <c r="D82" s="15">
+        <v>11500</v>
+      </c>
+      <c r="E82" s="19">
+        <v>1</v>
+      </c>
+      <c r="F82" s="22">
+        <f t="shared" si="3"/>
+        <v>1.2161604458487191E+52</v>
+      </c>
+      <c r="G82" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H82" s="16">
+        <v>8</v>
+      </c>
+      <c r="I82" s="15">
+        <v>0</v>
+      </c>
+      <c r="J82" s="13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="19">
+        <v>31</v>
+      </c>
+      <c r="D83" s="19">
+        <v>17</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="22">
+        <f t="shared" si="3"/>
+        <v>1.5810085796033349E+52</v>
+      </c>
+      <c r="G83" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H83" s="20">
+        <v>8</v>
+      </c>
+      <c r="I83" s="19">
+        <v>0</v>
+      </c>
+      <c r="J83" s="17">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="6">
+        <v>5</v>
+      </c>
+      <c r="D84" s="6">
+        <v>230000000</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="22">
+        <f t="shared" si="3"/>
+        <v>2.0553111534843355E+52</v>
+      </c>
+      <c r="G84" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H84" s="7">
+        <v>8</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="4">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="10">
+        <v>14</v>
+      </c>
+      <c r="D85" s="10">
+        <v>380</v>
+      </c>
+      <c r="E85" s="15">
+        <v>1</v>
+      </c>
+      <c r="F85" s="22">
+        <f t="shared" si="3"/>
+        <v>2.6719044995296362E+52</v>
+      </c>
+      <c r="G85" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H85" s="7">
+        <v>8</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="17">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="15">
+        <v>20</v>
+      </c>
+      <c r="D86" s="15">
+        <v>12000</v>
+      </c>
+      <c r="E86" s="19">
+        <v>1</v>
+      </c>
+      <c r="F86" s="22">
+        <f t="shared" si="3"/>
+        <v>3.4734758493885273E+52</v>
+      </c>
+      <c r="G86" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H86" s="16">
+        <v>8</v>
+      </c>
+      <c r="I86" s="15">
+        <v>0</v>
+      </c>
+      <c r="J86" s="13">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="19">
+        <v>31</v>
+      </c>
+      <c r="D87" s="19">
+        <v>18</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="22">
+        <f t="shared" si="3"/>
+        <v>4.5155186042050855E+52</v>
+      </c>
+      <c r="G87" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H87" s="20">
+        <v>8</v>
+      </c>
+      <c r="I87" s="19">
+        <v>0</v>
+      </c>
+      <c r="J87" s="17">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="6">
+        <v>5</v>
+      </c>
+      <c r="D88" s="6">
+        <v>240000000</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="22">
+        <f t="shared" si="3"/>
+        <v>5.8701741854666116E+52</v>
+      </c>
+      <c r="G88" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H88" s="7">
+        <v>8</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="10">
+        <v>14</v>
+      </c>
+      <c r="D89" s="10">
+        <v>390</v>
+      </c>
+      <c r="E89" s="15">
+        <v>1</v>
+      </c>
+      <c r="F89" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6312264411065951E+52</v>
+      </c>
+      <c r="G89" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H89" s="7">
+        <v>8</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="17">
+        <v>88</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="15">
+        <v>20</v>
+      </c>
+      <c r="D90" s="15">
+        <v>12500</v>
+      </c>
+      <c r="E90" s="19">
+        <v>1</v>
+      </c>
+      <c r="F90" s="22">
+        <f t="shared" si="3"/>
+        <v>9.9205943734385743E+52</v>
+      </c>
+      <c r="G90" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H90" s="16">
+        <v>8</v>
+      </c>
+      <c r="I90" s="15">
+        <v>0</v>
+      </c>
+      <c r="J90" s="13">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="19">
+        <v>31</v>
+      </c>
+      <c r="D91" s="19">
+        <v>18</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="22">
+        <f t="shared" si="3"/>
+        <v>1.2896772685470147E+53</v>
+      </c>
+      <c r="G91" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H91" s="20">
+        <v>8</v>
+      </c>
+      <c r="I91" s="19">
+        <v>0</v>
+      </c>
+      <c r="J91" s="17">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="6">
+        <v>5</v>
+      </c>
+      <c r="D92" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
+      <c r="F92" s="22">
+        <f t="shared" si="3"/>
+        <v>1.6765804491111192E+53</v>
+      </c>
+      <c r="G92" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H92" s="7">
+        <v>8</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E5351-22AD-4109-A7FF-ED0AED044A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6012D9B9-5DF3-4325-BCB6-558BAD0BC9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +237,11 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,8 +274,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,10 +354,14 @@
     <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="6" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="강조색1" xfId="3" builtinId="29"/>
     <cellStyle name="강조색2" xfId="4" builtinId="33"/>
+    <cellStyle name="강조색4" xfId="7" builtinId="41"/>
     <cellStyle name="강조색6" xfId="6" builtinId="49"/>
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
@@ -666,11 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2119,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="22">
-        <f t="shared" ref="F44:F92" si="2">F43*1.45</f>
+        <f t="shared" ref="F44:F72" si="2">F43*1.45</f>
         <v>2.6745658112412745E+46</v>
       </c>
       <c r="G44" s="7">
@@ -3109,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="22">
-        <f t="shared" ref="F74:F92" si="3">F73*1.3</f>
+        <f t="shared" ref="F74:F112" si="3">F73*1.3</f>
         <v>1.4908846933677259E+51</v>
       </c>
       <c r="G74" s="16">
@@ -3687,7 +3699,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
+      <c r="A92" s="25">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3717,6 +3729,666 @@
       </c>
       <c r="J92" s="4">
         <v>20000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>91</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="10">
+        <v>14</v>
+      </c>
+      <c r="D93" s="10">
+        <v>400</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93" s="22">
+        <f>F92*1.15</f>
+        <v>1.9280675164777867E+53</v>
+      </c>
+      <c r="G93" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H93" s="7">
+        <v>8</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="15">
+        <v>20</v>
+      </c>
+      <c r="D94" s="15">
+        <v>13000</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1</v>
+      </c>
+      <c r="F94" s="22">
+        <f t="shared" ref="F94:F112" si="4">F93*1.15</f>
+        <v>2.2172776439494544E+53</v>
+      </c>
+      <c r="G94" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H94" s="7">
+        <v>8</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="4">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>93</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="19">
+        <v>31</v>
+      </c>
+      <c r="D95" s="19">
+        <v>19</v>
+      </c>
+      <c r="E95" s="15">
+        <v>1</v>
+      </c>
+      <c r="F95" s="22">
+        <f t="shared" si="4"/>
+        <v>2.5498692905418723E+53</v>
+      </c>
+      <c r="G95" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H95" s="16">
+        <v>8</v>
+      </c>
+      <c r="I95" s="15">
+        <v>0</v>
+      </c>
+      <c r="J95" s="13">
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="17">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="6">
+        <v>5</v>
+      </c>
+      <c r="D96" s="6">
+        <v>260000000</v>
+      </c>
+      <c r="E96" s="19">
+        <v>1</v>
+      </c>
+      <c r="F96" s="22">
+        <f t="shared" si="4"/>
+        <v>2.9323496841231529E+53</v>
+      </c>
+      <c r="G96" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H96" s="20">
+        <v>8</v>
+      </c>
+      <c r="I96" s="19">
+        <v>0</v>
+      </c>
+      <c r="J96" s="17">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>95</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="10">
+        <v>14</v>
+      </c>
+      <c r="D97" s="10">
+        <v>410</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" s="22">
+        <f t="shared" si="4"/>
+        <v>3.3722021367416256E+53</v>
+      </c>
+      <c r="G97" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H97" s="7">
+        <v>8</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0</v>
+      </c>
+      <c r="J97" s="4">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>96</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="15">
+        <v>20</v>
+      </c>
+      <c r="D98" s="15">
+        <v>13500</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="22">
+        <f t="shared" si="4"/>
+        <v>3.8780324572528693E+53</v>
+      </c>
+      <c r="G98" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H98" s="7">
+        <v>8</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="4">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>97</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="19">
+        <v>31</v>
+      </c>
+      <c r="D99" s="19">
+        <v>19</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99" s="22">
+        <f t="shared" si="4"/>
+        <v>4.4597373258407994E+53</v>
+      </c>
+      <c r="G99" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H99" s="7">
+        <v>8</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="4">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="6">
+        <v>5</v>
+      </c>
+      <c r="D100" s="6">
+        <v>270000000</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1</v>
+      </c>
+      <c r="F100" s="22">
+        <f t="shared" si="4"/>
+        <v>5.1286979247169191E+53</v>
+      </c>
+      <c r="G100" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H100" s="16">
+        <v>8</v>
+      </c>
+      <c r="I100" s="15">
+        <v>0</v>
+      </c>
+      <c r="J100" s="13">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>99</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="10">
+        <v>14</v>
+      </c>
+      <c r="D101" s="10">
+        <v>420</v>
+      </c>
+      <c r="E101" s="15">
+        <v>1</v>
+      </c>
+      <c r="F101" s="22">
+        <f t="shared" si="4"/>
+        <v>5.8980026134244568E+53</v>
+      </c>
+      <c r="G101" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="20">
+        <v>8</v>
+      </c>
+      <c r="I101" s="19">
+        <v>0</v>
+      </c>
+      <c r="J101" s="17">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="17">
+        <v>100</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="15">
+        <v>20</v>
+      </c>
+      <c r="D102" s="15">
+        <v>14000</v>
+      </c>
+      <c r="E102" s="19">
+        <v>1</v>
+      </c>
+      <c r="F102" s="22">
+        <f t="shared" si="4"/>
+        <v>6.7827030054381249E+53</v>
+      </c>
+      <c r="G102" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H102" s="7">
+        <v>8</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>101</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="19">
+        <v>31</v>
+      </c>
+      <c r="D103" s="19">
+        <v>20</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+      <c r="F103" s="22">
+        <f t="shared" si="4"/>
+        <v>7.8001084562538427E+53</v>
+      </c>
+      <c r="G103" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H103" s="7">
+        <v>8</v>
+      </c>
+      <c r="I103" s="6">
+        <v>0</v>
+      </c>
+      <c r="J103" s="4">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>102</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="6">
+        <v>5</v>
+      </c>
+      <c r="D104" s="6">
+        <v>280000000</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
+      <c r="F104" s="22">
+        <f t="shared" si="4"/>
+        <v>8.9701247246919192E+53</v>
+      </c>
+      <c r="G104" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H104" s="7">
+        <v>8</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
+      <c r="J104" s="4">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>103</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="10">
+        <v>14</v>
+      </c>
+      <c r="D105" s="10">
+        <v>430</v>
+      </c>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+      <c r="F105" s="22">
+        <f t="shared" si="4"/>
+        <v>1.0315643433395706E+54</v>
+      </c>
+      <c r="G105" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H105" s="16">
+        <v>8</v>
+      </c>
+      <c r="I105" s="15">
+        <v>0</v>
+      </c>
+      <c r="J105" s="13">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>104</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="15">
+        <v>20</v>
+      </c>
+      <c r="D106" s="15">
+        <v>14500</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+      <c r="F106" s="22">
+        <f t="shared" si="4"/>
+        <v>1.186298994840506E+54</v>
+      </c>
+      <c r="G106" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H106" s="20">
+        <v>8</v>
+      </c>
+      <c r="I106" s="19">
+        <v>0</v>
+      </c>
+      <c r="J106" s="17">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>105</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="19">
+        <v>31</v>
+      </c>
+      <c r="D107" s="19">
+        <v>20</v>
+      </c>
+      <c r="E107" s="15">
+        <v>1</v>
+      </c>
+      <c r="F107" s="22">
+        <f t="shared" si="4"/>
+        <v>1.3642438440665818E+54</v>
+      </c>
+      <c r="G107" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H107" s="7">
+        <v>8</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="4">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="17">
+        <v>106</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="6">
+        <v>5</v>
+      </c>
+      <c r="D108" s="6">
+        <v>290000000</v>
+      </c>
+      <c r="E108" s="19">
+        <v>1</v>
+      </c>
+      <c r="F108" s="22">
+        <f t="shared" si="4"/>
+        <v>1.568880420676569E+54</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H108" s="7">
+        <v>8</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="4">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>107</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="10">
+        <v>14</v>
+      </c>
+      <c r="D109" s="10">
+        <v>440</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+      <c r="F109" s="22">
+        <f t="shared" si="4"/>
+        <v>1.8042124837780542E+54</v>
+      </c>
+      <c r="G109" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H109" s="7">
+        <v>8</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4">
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="15">
+        <v>20</v>
+      </c>
+      <c r="D110" s="15">
+        <v>15000</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
+      <c r="F110" s="22">
+        <f t="shared" si="4"/>
+        <v>2.0748443563447622E+54</v>
+      </c>
+      <c r="G110" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H110" s="16">
+        <v>8</v>
+      </c>
+      <c r="I110" s="15">
+        <v>0</v>
+      </c>
+      <c r="J110" s="13">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>109</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="19">
+        <v>31</v>
+      </c>
+      <c r="D111" s="19">
+        <v>21</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+      <c r="F111" s="22">
+        <f t="shared" si="4"/>
+        <v>2.3860710097964762E+54</v>
+      </c>
+      <c r="G111" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H111" s="20">
+        <v>8</v>
+      </c>
+      <c r="I111" s="19">
+        <v>0</v>
+      </c>
+      <c r="J111" s="17">
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>110</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="6">
+        <v>5</v>
+      </c>
+      <c r="D112" s="6">
+        <v>300000000</v>
+      </c>
+      <c r="E112" s="6">
+        <v>1</v>
+      </c>
+      <c r="F112" s="22">
+        <f t="shared" si="4"/>
+        <v>2.7439816612659474E+54</v>
+      </c>
+      <c r="G112" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H112" s="7">
+        <v>8</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
+      <c r="J112" s="4">
+        <v>24000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6012D9B9-5DF3-4325-BCB6-558BAD0BC9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147183AC-4F95-4C96-B332-3CBA22B55B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8640" yWindow="3165" windowWidth="24840" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,38 @@
   </si>
   <si>
     <t>61-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,11 +710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3121,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="22">
-        <f t="shared" ref="F74:F112" si="3">F73*1.3</f>
+        <f t="shared" ref="F74:F92" si="3">F73*1.3</f>
         <v>1.4908846933677259E+51</v>
       </c>
       <c r="G74" s="16">
@@ -3781,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="22">
-        <f t="shared" ref="F94:F112" si="4">F93*1.15</f>
+        <f t="shared" ref="F94:F122" si="4">F93*1.15</f>
         <v>2.2172776439494544E+53</v>
       </c>
       <c r="G94" s="7">
@@ -4389,6 +4421,336 @@
       </c>
       <c r="J112" s="4">
         <v>24000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>111</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="10">
+        <v>14</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
+      <c r="F113" s="22">
+        <f t="shared" si="4"/>
+        <v>3.1555789104558392E+54</v>
+      </c>
+      <c r="G113" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H113" s="7">
+        <v>8</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0</v>
+      </c>
+      <c r="J113" s="4">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>112</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="15">
+        <v>20</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="6">
+        <v>1</v>
+      </c>
+      <c r="F114" s="22">
+        <f t="shared" si="4"/>
+        <v>3.6289157470242145E+54</v>
+      </c>
+      <c r="G114" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H114" s="16">
+        <v>8</v>
+      </c>
+      <c r="I114" s="15">
+        <v>0</v>
+      </c>
+      <c r="J114" s="13">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>113</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="19">
+        <v>31</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
+      <c r="F115" s="22">
+        <f t="shared" si="4"/>
+        <v>4.1732531090778464E+54</v>
+      </c>
+      <c r="G115" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H115" s="20">
+        <v>8</v>
+      </c>
+      <c r="I115" s="19">
+        <v>0</v>
+      </c>
+      <c r="J115" s="17">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>114</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="6">
+        <v>5</v>
+      </c>
+      <c r="D116" s="6">
+        <v>310000000</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1</v>
+      </c>
+      <c r="F116" s="22">
+        <f t="shared" si="4"/>
+        <v>4.7992410754395231E+54</v>
+      </c>
+      <c r="G116" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H116" s="7">
+        <v>8</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0</v>
+      </c>
+      <c r="J116" s="4">
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="10">
+        <v>14</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1</v>
+      </c>
+      <c r="F117" s="22">
+        <f t="shared" si="4"/>
+        <v>5.519127236755451E+54</v>
+      </c>
+      <c r="G117" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H117" s="7">
+        <v>8</v>
+      </c>
+      <c r="I117" s="6">
+        <v>0</v>
+      </c>
+      <c r="J117" s="4">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>116</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="15">
+        <v>20</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="6">
+        <v>1</v>
+      </c>
+      <c r="F118" s="22">
+        <f t="shared" si="4"/>
+        <v>6.3469963222687675E+54</v>
+      </c>
+      <c r="G118" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H118" s="16">
+        <v>8</v>
+      </c>
+      <c r="I118" s="15">
+        <v>0</v>
+      </c>
+      <c r="J118" s="13">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>117</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="19">
+        <v>31</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" s="6">
+        <v>1</v>
+      </c>
+      <c r="F119" s="22">
+        <f t="shared" si="4"/>
+        <v>7.2990457706090822E+54</v>
+      </c>
+      <c r="G119" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H119" s="20">
+        <v>8</v>
+      </c>
+      <c r="I119" s="19">
+        <v>0</v>
+      </c>
+      <c r="J119" s="17">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>118</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="6">
+        <v>5</v>
+      </c>
+      <c r="D120" s="6">
+        <v>310000000</v>
+      </c>
+      <c r="E120" s="6">
+        <v>1</v>
+      </c>
+      <c r="F120" s="22">
+        <f t="shared" si="4"/>
+        <v>8.3939026362004434E+54</v>
+      </c>
+      <c r="G120" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H120" s="7">
+        <v>8</v>
+      </c>
+      <c r="I120" s="6">
+        <v>0</v>
+      </c>
+      <c r="J120" s="4">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>119</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="10">
+        <v>14</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="6">
+        <v>1</v>
+      </c>
+      <c r="F121" s="22">
+        <f t="shared" si="4"/>
+        <v>9.6529880316305089E+54</v>
+      </c>
+      <c r="G121" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H121" s="7">
+        <v>8</v>
+      </c>
+      <c r="I121" s="6">
+        <v>0</v>
+      </c>
+      <c r="J121" s="4">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>120</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="15">
+        <v>20</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="6">
+        <v>1</v>
+      </c>
+      <c r="F122" s="22">
+        <f t="shared" si="4"/>
+        <v>1.1100936236375085E+55</v>
+      </c>
+      <c r="G122" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H122" s="16">
+        <v>8</v>
+      </c>
+      <c r="I122" s="15">
+        <v>0</v>
+      </c>
+      <c r="J122" s="13">
+        <v>26000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147183AC-4F95-4C96-B332-3CBA22B55B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE514572-B5D5-4840-950D-C4C58C1F5461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="3165" windowWidth="24840" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,66 @@
   </si>
   <si>
     <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,11 +770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3813,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="22">
-        <f t="shared" ref="F94:F122" si="4">F93*1.15</f>
+        <f t="shared" ref="F94:F142" si="4">F93*1.15</f>
         <v>2.2172776439494544E+53</v>
       </c>
       <c r="G94" s="7">
@@ -4665,7 +4725,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="6">
-        <v>310000000</v>
+        <v>320000000</v>
       </c>
       <c r="E120" s="6">
         <v>1</v>
@@ -4751,6 +4811,666 @@
       </c>
       <c r="J122" s="13">
         <v>26000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>121</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="19">
+        <v>31</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="6">
+        <v>1</v>
+      </c>
+      <c r="F123" s="22">
+        <f t="shared" si="4"/>
+        <v>1.2766076671831345E+55</v>
+      </c>
+      <c r="G123" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H123" s="7">
+        <v>8</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0</v>
+      </c>
+      <c r="J123" s="4">
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>122</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="6">
+        <v>5</v>
+      </c>
+      <c r="D124" s="6">
+        <v>330000000</v>
+      </c>
+      <c r="E124" s="6">
+        <v>1</v>
+      </c>
+      <c r="F124" s="22">
+        <f t="shared" si="4"/>
+        <v>1.4680988172606046E+55</v>
+      </c>
+      <c r="G124" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H124" s="16">
+        <v>8</v>
+      </c>
+      <c r="I124" s="15">
+        <v>0</v>
+      </c>
+      <c r="J124" s="13">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>123</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="10">
+        <v>14</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125" s="6">
+        <v>1</v>
+      </c>
+      <c r="F125" s="22">
+        <f t="shared" si="4"/>
+        <v>1.6883136398496953E+55</v>
+      </c>
+      <c r="G125" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H125" s="20">
+        <v>8</v>
+      </c>
+      <c r="I125" s="19">
+        <v>0</v>
+      </c>
+      <c r="J125" s="17">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>124</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="15">
+        <v>20</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" s="6">
+        <v>1</v>
+      </c>
+      <c r="F126" s="22">
+        <f t="shared" si="4"/>
+        <v>1.9415606858271496E+55</v>
+      </c>
+      <c r="G126" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H126" s="7">
+        <v>8</v>
+      </c>
+      <c r="I126" s="6">
+        <v>0</v>
+      </c>
+      <c r="J126" s="4">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>125</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="19">
+        <v>31</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="6">
+        <v>1</v>
+      </c>
+      <c r="F127" s="22">
+        <f t="shared" si="4"/>
+        <v>2.2327947887012218E+55</v>
+      </c>
+      <c r="G127" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H127" s="7">
+        <v>8</v>
+      </c>
+      <c r="I127" s="6">
+        <v>0</v>
+      </c>
+      <c r="J127" s="4">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>126</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="6">
+        <v>5</v>
+      </c>
+      <c r="D128" s="6">
+        <v>340000000</v>
+      </c>
+      <c r="E128" s="6">
+        <v>1</v>
+      </c>
+      <c r="F128" s="22">
+        <f t="shared" si="4"/>
+        <v>2.5677140070064047E+55</v>
+      </c>
+      <c r="G128" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H128" s="16">
+        <v>8</v>
+      </c>
+      <c r="I128" s="15">
+        <v>0</v>
+      </c>
+      <c r="J128" s="13">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>127</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="10">
+        <v>14</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="6">
+        <v>1</v>
+      </c>
+      <c r="F129" s="22">
+        <f t="shared" si="4"/>
+        <v>2.9528711080573651E+55</v>
+      </c>
+      <c r="G129" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H129" s="7">
+        <v>8</v>
+      </c>
+      <c r="I129" s="6">
+        <v>0</v>
+      </c>
+      <c r="J129" s="4">
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>128</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="15">
+        <v>20</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E130" s="6">
+        <v>1</v>
+      </c>
+      <c r="F130" s="22">
+        <f t="shared" si="4"/>
+        <v>3.3958017742659697E+55</v>
+      </c>
+      <c r="G130" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H130" s="16">
+        <v>8</v>
+      </c>
+      <c r="I130" s="15">
+        <v>0</v>
+      </c>
+      <c r="J130" s="13">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>129</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="19">
+        <v>31</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="6">
+        <v>1</v>
+      </c>
+      <c r="F131" s="22">
+        <f t="shared" si="4"/>
+        <v>3.9051720404058648E+55</v>
+      </c>
+      <c r="G131" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H131" s="20">
+        <v>8</v>
+      </c>
+      <c r="I131" s="19">
+        <v>0</v>
+      </c>
+      <c r="J131" s="17">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>130</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="6">
+        <v>5</v>
+      </c>
+      <c r="D132" s="6">
+        <v>350000000</v>
+      </c>
+      <c r="E132" s="6">
+        <v>1</v>
+      </c>
+      <c r="F132" s="22">
+        <f t="shared" si="4"/>
+        <v>4.4909478464667443E+55</v>
+      </c>
+      <c r="G132" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H132" s="7">
+        <v>8</v>
+      </c>
+      <c r="I132" s="6">
+        <v>0</v>
+      </c>
+      <c r="J132" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>131</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="10">
+        <v>14</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="6">
+        <v>1</v>
+      </c>
+      <c r="F133" s="22">
+        <f t="shared" si="4"/>
+        <v>5.1645900234367555E+55</v>
+      </c>
+      <c r="G133" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H133" s="7">
+        <v>8</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0</v>
+      </c>
+      <c r="J133" s="4">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>132</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="15">
+        <v>20</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E134" s="6">
+        <v>1</v>
+      </c>
+      <c r="F134" s="22">
+        <f t="shared" si="4"/>
+        <v>5.9392785269522679E+55</v>
+      </c>
+      <c r="G134" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H134" s="16">
+        <v>8</v>
+      </c>
+      <c r="I134" s="15">
+        <v>0</v>
+      </c>
+      <c r="J134" s="13">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>133</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="19">
+        <v>31</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" s="6">
+        <v>1</v>
+      </c>
+      <c r="F135" s="22">
+        <f t="shared" si="4"/>
+        <v>6.830170305995108E+55</v>
+      </c>
+      <c r="G135" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H135" s="7">
+        <v>8</v>
+      </c>
+      <c r="I135" s="6">
+        <v>0</v>
+      </c>
+      <c r="J135" s="4">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>134</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="6">
+        <v>5</v>
+      </c>
+      <c r="D136" s="6">
+        <v>360000000</v>
+      </c>
+      <c r="E136" s="6">
+        <v>1</v>
+      </c>
+      <c r="F136" s="22">
+        <f t="shared" si="4"/>
+        <v>7.8546958518943741E+55</v>
+      </c>
+      <c r="G136" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H136" s="16">
+        <v>8</v>
+      </c>
+      <c r="I136" s="15">
+        <v>0</v>
+      </c>
+      <c r="J136" s="13">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>135</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="10">
+        <v>14</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="22">
+        <f t="shared" si="4"/>
+        <v>9.0329002296785292E+55</v>
+      </c>
+      <c r="G137" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H137" s="20">
+        <v>8</v>
+      </c>
+      <c r="I137" s="19">
+        <v>0</v>
+      </c>
+      <c r="J137" s="17">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>136</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="15">
+        <v>20</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E138" s="6">
+        <v>1</v>
+      </c>
+      <c r="F138" s="22">
+        <f t="shared" si="4"/>
+        <v>1.0387835264130309E+56</v>
+      </c>
+      <c r="G138" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H138" s="7">
+        <v>8</v>
+      </c>
+      <c r="I138" s="6">
+        <v>0</v>
+      </c>
+      <c r="J138" s="4">
+        <v>29200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>137</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="19">
+        <v>31</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E139" s="6">
+        <v>1</v>
+      </c>
+      <c r="F139" s="22">
+        <f t="shared" si="4"/>
+        <v>1.1946010553749854E+56</v>
+      </c>
+      <c r="G139" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H139" s="7">
+        <v>8</v>
+      </c>
+      <c r="I139" s="6">
+        <v>0</v>
+      </c>
+      <c r="J139" s="4">
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>138</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="6">
+        <v>5</v>
+      </c>
+      <c r="D140" s="6">
+        <v>370000000</v>
+      </c>
+      <c r="E140" s="6">
+        <v>1</v>
+      </c>
+      <c r="F140" s="22">
+        <f t="shared" si="4"/>
+        <v>1.373791213681233E+56</v>
+      </c>
+      <c r="G140" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H140" s="16">
+        <v>8</v>
+      </c>
+      <c r="I140" s="15">
+        <v>0</v>
+      </c>
+      <c r="J140" s="13">
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>139</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="10">
+        <v>14</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="6">
+        <v>1</v>
+      </c>
+      <c r="F141" s="22">
+        <f t="shared" si="4"/>
+        <v>1.5798598957334179E+56</v>
+      </c>
+      <c r="G141" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H141" s="7">
+        <v>8</v>
+      </c>
+      <c r="I141" s="6">
+        <v>0</v>
+      </c>
+      <c r="J141" s="4">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>140</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="15">
+        <v>20</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E142" s="6">
+        <v>1</v>
+      </c>
+      <c r="F142" s="22">
+        <f t="shared" si="4"/>
+        <v>1.8168388800934306E+56</v>
+      </c>
+      <c r="G142" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H142" s="16">
+        <v>8</v>
+      </c>
+      <c r="I142" s="15">
+        <v>0</v>
+      </c>
+      <c r="J142" s="13">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE514572-B5D5-4840-950D-C4C58C1F5461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205C210A-0130-4916-A8CC-14BABE300E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,66 @@
   </si>
   <si>
     <t>23000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,11 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5441,7 +5501,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="4">
+      <c r="A142" s="25">
         <v>140</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -5471,6 +5531,666 @@
       </c>
       <c r="J142" s="13">
         <v>30000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>141</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="19">
+        <v>31</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E143" s="6">
+        <v>1</v>
+      </c>
+      <c r="F143" s="22">
+        <f>F142*1.18</f>
+        <v>2.1438698785102479E+56</v>
+      </c>
+      <c r="G143" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H143" s="7">
+        <v>8</v>
+      </c>
+      <c r="I143" s="6">
+        <v>0</v>
+      </c>
+      <c r="J143" s="4">
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>142</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="6">
+        <v>5</v>
+      </c>
+      <c r="D144" s="6">
+        <v>380000000</v>
+      </c>
+      <c r="E144" s="6">
+        <v>1</v>
+      </c>
+      <c r="F144" s="22">
+        <f t="shared" ref="F144:F162" si="5">F143*1.18</f>
+        <v>2.5297664566420924E+56</v>
+      </c>
+      <c r="G144" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H144" s="16">
+        <v>8</v>
+      </c>
+      <c r="I144" s="15">
+        <v>0</v>
+      </c>
+      <c r="J144" s="13">
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>143</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="10">
+        <v>14</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" s="6">
+        <v>1</v>
+      </c>
+      <c r="F145" s="22">
+        <f t="shared" si="5"/>
+        <v>2.9851244188376688E+56</v>
+      </c>
+      <c r="G145" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H145" s="7">
+        <v>8</v>
+      </c>
+      <c r="I145" s="6">
+        <v>0</v>
+      </c>
+      <c r="J145" s="4">
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>144</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="15">
+        <v>20</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E146" s="6">
+        <v>1</v>
+      </c>
+      <c r="F146" s="22">
+        <f t="shared" si="5"/>
+        <v>3.5224468142284491E+56</v>
+      </c>
+      <c r="G146" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H146" s="16">
+        <v>8</v>
+      </c>
+      <c r="I146" s="15">
+        <v>0</v>
+      </c>
+      <c r="J146" s="13">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>145</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" s="19">
+        <v>31</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E147" s="6">
+        <v>1</v>
+      </c>
+      <c r="F147" s="22">
+        <f t="shared" si="5"/>
+        <v>4.1564872407895695E+56</v>
+      </c>
+      <c r="G147" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H147" s="7">
+        <v>8</v>
+      </c>
+      <c r="I147" s="6">
+        <v>0</v>
+      </c>
+      <c r="J147" s="4">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>146</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="6">
+        <v>5</v>
+      </c>
+      <c r="D148" s="6">
+        <v>390000000</v>
+      </c>
+      <c r="E148" s="6">
+        <v>1</v>
+      </c>
+      <c r="F148" s="22">
+        <f t="shared" si="5"/>
+        <v>4.9046549441316916E+56</v>
+      </c>
+      <c r="G148" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H148" s="16">
+        <v>8</v>
+      </c>
+      <c r="I148" s="15">
+        <v>0</v>
+      </c>
+      <c r="J148" s="13">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>147</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="10">
+        <v>14</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E149" s="6">
+        <v>1</v>
+      </c>
+      <c r="F149" s="22">
+        <f t="shared" si="5"/>
+        <v>5.7874928340753954E+56</v>
+      </c>
+      <c r="G149" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H149" s="7">
+        <v>8</v>
+      </c>
+      <c r="I149" s="6">
+        <v>0</v>
+      </c>
+      <c r="J149" s="4">
+        <v>31400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>148</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="15">
+        <v>20</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E150" s="6">
+        <v>1</v>
+      </c>
+      <c r="F150" s="22">
+        <f t="shared" si="5"/>
+        <v>6.8292415442089662E+56</v>
+      </c>
+      <c r="G150" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H150" s="16">
+        <v>8</v>
+      </c>
+      <c r="I150" s="15">
+        <v>0</v>
+      </c>
+      <c r="J150" s="13">
+        <v>31600</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>149</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="19">
+        <v>31</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E151" s="6">
+        <v>1</v>
+      </c>
+      <c r="F151" s="22">
+        <f t="shared" si="5"/>
+        <v>8.05850502216658E+56</v>
+      </c>
+      <c r="G151" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H151" s="7">
+        <v>8</v>
+      </c>
+      <c r="I151" s="6">
+        <v>0</v>
+      </c>
+      <c r="J151" s="4">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>150</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="6">
+        <v>5</v>
+      </c>
+      <c r="D152" s="6">
+        <v>400000000</v>
+      </c>
+      <c r="E152" s="6">
+        <v>1</v>
+      </c>
+      <c r="F152" s="22">
+        <f t="shared" si="5"/>
+        <v>9.5090359261565638E+56</v>
+      </c>
+      <c r="G152" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H152" s="16">
+        <v>8</v>
+      </c>
+      <c r="I152" s="15">
+        <v>0</v>
+      </c>
+      <c r="J152" s="13">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>151</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" s="10">
+        <v>14</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E153" s="6">
+        <v>1</v>
+      </c>
+      <c r="F153" s="22">
+        <f t="shared" si="5"/>
+        <v>1.1220662392864745E+57</v>
+      </c>
+      <c r="G153" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H153" s="7">
+        <v>8</v>
+      </c>
+      <c r="I153" s="6">
+        <v>0</v>
+      </c>
+      <c r="J153" s="4">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>152</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="15">
+        <v>20</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E154" s="6">
+        <v>1</v>
+      </c>
+      <c r="F154" s="22">
+        <f t="shared" si="5"/>
+        <v>1.3240381623580398E+57</v>
+      </c>
+      <c r="G154" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H154" s="16">
+        <v>8</v>
+      </c>
+      <c r="I154" s="15">
+        <v>0</v>
+      </c>
+      <c r="J154" s="13">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>153</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="19">
+        <v>31</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E155" s="6">
+        <v>1</v>
+      </c>
+      <c r="F155" s="22">
+        <f t="shared" si="5"/>
+        <v>1.5623650315824868E+57</v>
+      </c>
+      <c r="G155" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H155" s="7">
+        <v>8</v>
+      </c>
+      <c r="I155" s="6">
+        <v>0</v>
+      </c>
+      <c r="J155" s="4">
+        <v>32600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>154</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="6">
+        <v>5</v>
+      </c>
+      <c r="D156" s="6">
+        <v>410000000</v>
+      </c>
+      <c r="E156" s="6">
+        <v>1</v>
+      </c>
+      <c r="F156" s="22">
+        <f t="shared" si="5"/>
+        <v>1.8435907372673343E+57</v>
+      </c>
+      <c r="G156" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H156" s="16">
+        <v>8</v>
+      </c>
+      <c r="I156" s="15">
+        <v>0</v>
+      </c>
+      <c r="J156" s="13">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>155</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" s="10">
+        <v>14</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E157" s="6">
+        <v>1</v>
+      </c>
+      <c r="F157" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1754370699754543E+57</v>
+      </c>
+      <c r="G157" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H157" s="7">
+        <v>8</v>
+      </c>
+      <c r="I157" s="6">
+        <v>0</v>
+      </c>
+      <c r="J157" s="4">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>156</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="15">
+        <v>20</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E158" s="6">
+        <v>1</v>
+      </c>
+      <c r="F158" s="22">
+        <f t="shared" si="5"/>
+        <v>2.5670157425710361E+57</v>
+      </c>
+      <c r="G158" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H158" s="16">
+        <v>8</v>
+      </c>
+      <c r="I158" s="15">
+        <v>0</v>
+      </c>
+      <c r="J158" s="13">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>157</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="19">
+        <v>31</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E159" s="6">
+        <v>1</v>
+      </c>
+      <c r="F159" s="22">
+        <f t="shared" si="5"/>
+        <v>3.0290785762338224E+57</v>
+      </c>
+      <c r="G159" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H159" s="7">
+        <v>8</v>
+      </c>
+      <c r="I159" s="6">
+        <v>0</v>
+      </c>
+      <c r="J159" s="4">
+        <v>33400</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>158</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="6">
+        <v>5</v>
+      </c>
+      <c r="D160" s="6">
+        <v>420000000</v>
+      </c>
+      <c r="E160" s="6">
+        <v>1</v>
+      </c>
+      <c r="F160" s="22">
+        <f t="shared" si="5"/>
+        <v>3.5743127199559102E+57</v>
+      </c>
+      <c r="G160" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H160" s="16">
+        <v>8</v>
+      </c>
+      <c r="I160" s="15">
+        <v>0</v>
+      </c>
+      <c r="J160" s="13">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>159</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="10">
+        <v>14</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E161" s="6">
+        <v>1</v>
+      </c>
+      <c r="F161" s="22">
+        <f t="shared" si="5"/>
+        <v>4.2176890095479738E+57</v>
+      </c>
+      <c r="G161" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H161" s="7">
+        <v>8</v>
+      </c>
+      <c r="I161" s="6">
+        <v>0</v>
+      </c>
+      <c r="J161" s="4">
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
+        <v>160</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="15">
+        <v>20</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="6">
+        <v>1</v>
+      </c>
+      <c r="F162" s="22">
+        <f t="shared" si="5"/>
+        <v>4.9768730312666087E+57</v>
+      </c>
+      <c r="G162" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H162" s="16">
+        <v>8</v>
+      </c>
+      <c r="I162" s="15">
+        <v>0</v>
+      </c>
+      <c r="J162" s="13">
+        <v>34000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205C210A-0130-4916-A8CC-14BABE300E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2B577-EF7C-4824-9E37-9636F9491F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="78">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,58 @@
   </si>
   <si>
     <t>28000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,11 +882,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5583,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="22">
-        <f t="shared" ref="F144:F162" si="5">F143*1.18</f>
+        <f t="shared" ref="F144:F179" si="5">F143*1.18</f>
         <v>2.5297664566420924E+56</v>
       </c>
       <c r="G144" s="16">
@@ -6191,6 +6243,567 @@
       </c>
       <c r="J162" s="13">
         <v>34000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>161</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="19">
+        <v>31</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E163" s="6">
+        <v>1</v>
+      </c>
+      <c r="F163" s="22">
+        <f t="shared" si="5"/>
+        <v>5.872710176894598E+57</v>
+      </c>
+      <c r="G163" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H163" s="7">
+        <v>8</v>
+      </c>
+      <c r="I163" s="6">
+        <v>0</v>
+      </c>
+      <c r="J163" s="4">
+        <v>34200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>162</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="6">
+        <v>5</v>
+      </c>
+      <c r="D164" s="6">
+        <v>430000000</v>
+      </c>
+      <c r="E164" s="6">
+        <v>1</v>
+      </c>
+      <c r="F164" s="22">
+        <f t="shared" si="5"/>
+        <v>6.9297980087356248E+57</v>
+      </c>
+      <c r="G164" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H164" s="16">
+        <v>8</v>
+      </c>
+      <c r="I164" s="15">
+        <v>0</v>
+      </c>
+      <c r="J164" s="13">
+        <v>34400</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>163</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" s="10">
+        <v>14</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E165" s="6">
+        <v>1</v>
+      </c>
+      <c r="F165" s="22">
+        <f t="shared" si="5"/>
+        <v>8.1771616503080373E+57</v>
+      </c>
+      <c r="G165" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H165" s="7">
+        <v>8</v>
+      </c>
+      <c r="I165" s="6">
+        <v>0</v>
+      </c>
+      <c r="J165" s="4">
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>164</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="15">
+        <v>20</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="6">
+        <v>1</v>
+      </c>
+      <c r="F166" s="22">
+        <f t="shared" si="5"/>
+        <v>9.6490507473634834E+57</v>
+      </c>
+      <c r="G166" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H166" s="16">
+        <v>8</v>
+      </c>
+      <c r="I166" s="15">
+        <v>0</v>
+      </c>
+      <c r="J166" s="13">
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>165</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="19">
+        <v>31</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E167" s="6">
+        <v>1</v>
+      </c>
+      <c r="F167" s="22">
+        <f t="shared" si="5"/>
+        <v>1.138587988188891E+58</v>
+      </c>
+      <c r="G167" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H167" s="7">
+        <v>8</v>
+      </c>
+      <c r="I167" s="6">
+        <v>0</v>
+      </c>
+      <c r="J167" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>166</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="6">
+        <v>5</v>
+      </c>
+      <c r="D168" s="6">
+        <v>440000000</v>
+      </c>
+      <c r="E168" s="6">
+        <v>1</v>
+      </c>
+      <c r="F168" s="22">
+        <f t="shared" si="5"/>
+        <v>1.3435338260628912E+58</v>
+      </c>
+      <c r="G168" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H168" s="16">
+        <v>8</v>
+      </c>
+      <c r="I168" s="15">
+        <v>0</v>
+      </c>
+      <c r="J168" s="13">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>167</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" s="10">
+        <v>14</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E169" s="6">
+        <v>1</v>
+      </c>
+      <c r="F169" s="22">
+        <f t="shared" si="5"/>
+        <v>1.5853699147542117E+58</v>
+      </c>
+      <c r="G169" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H169" s="7">
+        <v>8</v>
+      </c>
+      <c r="I169" s="6">
+        <v>0</v>
+      </c>
+      <c r="J169" s="4">
+        <v>35400</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="4">
+        <v>168</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="15">
+        <v>20</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E170" s="6">
+        <v>1</v>
+      </c>
+      <c r="F170" s="22">
+        <f t="shared" si="5"/>
+        <v>1.8707364994099697E+58</v>
+      </c>
+      <c r="G170" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H170" s="16">
+        <v>8</v>
+      </c>
+      <c r="I170" s="15">
+        <v>0</v>
+      </c>
+      <c r="J170" s="13">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>169</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="19">
+        <v>31</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E171" s="6">
+        <v>1</v>
+      </c>
+      <c r="F171" s="22">
+        <f t="shared" si="5"/>
+        <v>2.2074690693037643E+58</v>
+      </c>
+      <c r="G171" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H171" s="7">
+        <v>8</v>
+      </c>
+      <c r="I171" s="6">
+        <v>0</v>
+      </c>
+      <c r="J171" s="4">
+        <v>35800</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
+        <v>170</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="6">
+        <v>5</v>
+      </c>
+      <c r="D172" s="6">
+        <v>450000000</v>
+      </c>
+      <c r="E172" s="6">
+        <v>1</v>
+      </c>
+      <c r="F172" s="22">
+        <f t="shared" si="5"/>
+        <v>2.6048135017784418E+58</v>
+      </c>
+      <c r="G172" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H172" s="16">
+        <v>8</v>
+      </c>
+      <c r="I172" s="15">
+        <v>0</v>
+      </c>
+      <c r="J172" s="13">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>171</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" s="10">
+        <v>14</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E173" s="6">
+        <v>1</v>
+      </c>
+      <c r="F173" s="22">
+        <f t="shared" si="5"/>
+        <v>3.0736799320985612E+58</v>
+      </c>
+      <c r="G173" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H173" s="7">
+        <v>8</v>
+      </c>
+      <c r="I173" s="6">
+        <v>0</v>
+      </c>
+      <c r="J173" s="4">
+        <v>36200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="4">
+        <v>172</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="15">
+        <v>20</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E174" s="6">
+        <v>1</v>
+      </c>
+      <c r="F174" s="22">
+        <f t="shared" si="5"/>
+        <v>3.6269423198763021E+58</v>
+      </c>
+      <c r="G174" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H174" s="16">
+        <v>8</v>
+      </c>
+      <c r="I174" s="15">
+        <v>0</v>
+      </c>
+      <c r="J174" s="13">
+        <v>36400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
+        <v>173</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="19">
+        <v>31</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E175" s="6">
+        <v>1</v>
+      </c>
+      <c r="F175" s="22">
+        <f t="shared" si="5"/>
+        <v>4.279791937454036E+58</v>
+      </c>
+      <c r="G175" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H175" s="7">
+        <v>8</v>
+      </c>
+      <c r="I175" s="6">
+        <v>0</v>
+      </c>
+      <c r="J175" s="4">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="4">
+        <v>174</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="6">
+        <v>5</v>
+      </c>
+      <c r="D176" s="6">
+        <v>460000000</v>
+      </c>
+      <c r="E176" s="6">
+        <v>1</v>
+      </c>
+      <c r="F176" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0501544861957627E+58</v>
+      </c>
+      <c r="G176" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H176" s="16">
+        <v>8</v>
+      </c>
+      <c r="I176" s="15">
+        <v>0</v>
+      </c>
+      <c r="J176" s="13">
+        <v>36800</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>175</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="10">
+        <v>14</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E177" s="6">
+        <v>1</v>
+      </c>
+      <c r="F177" s="22">
+        <f t="shared" si="5"/>
+        <v>5.9591822937109991E+58</v>
+      </c>
+      <c r="G177" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H177" s="7">
+        <v>8</v>
+      </c>
+      <c r="I177" s="6">
+        <v>0</v>
+      </c>
+      <c r="J177" s="4">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="4">
+        <v>176</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="15">
+        <v>20</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E178" s="6">
+        <v>1</v>
+      </c>
+      <c r="F178" s="22">
+        <f t="shared" si="5"/>
+        <v>7.0318351065789788E+58</v>
+      </c>
+      <c r="G178" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H178" s="16">
+        <v>8</v>
+      </c>
+      <c r="I178" s="15">
+        <v>0</v>
+      </c>
+      <c r="J178" s="13">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="4">
+        <v>177</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="19">
+        <v>31</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E179" s="6">
+        <v>1</v>
+      </c>
+      <c r="F179" s="22">
+        <f t="shared" si="5"/>
+        <v>8.2975654257631942E+58</v>
+      </c>
+      <c r="G179" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H179" s="7">
+        <v>8</v>
+      </c>
+      <c r="I179" s="6">
+        <v>0</v>
+      </c>
+      <c r="J179" s="4">
+        <v>37400</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2B577-EF7C-4824-9E37-9636F9491F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E79FB5-5633-406A-B677-94033343EDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="95">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,74 @@
   </si>
   <si>
     <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D179" sqref="D179"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5635,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="22">
-        <f t="shared" ref="F144:F179" si="5">F143*1.18</f>
+        <f t="shared" ref="F144:F202" si="5">F143*1.18</f>
         <v>2.5297664566420924E+56</v>
       </c>
       <c r="G144" s="16">
@@ -6804,6 +6872,765 @@
       </c>
       <c r="J179" s="4">
         <v>37400</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="17">
+        <v>178</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" s="6">
+        <v>5</v>
+      </c>
+      <c r="D180" s="6">
+        <v>470000000</v>
+      </c>
+      <c r="E180" s="6">
+        <v>1</v>
+      </c>
+      <c r="F180" s="22">
+        <f t="shared" si="5"/>
+        <v>9.7911272024005688E+58</v>
+      </c>
+      <c r="G180" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H180" s="16">
+        <v>8</v>
+      </c>
+      <c r="I180" s="15">
+        <v>0</v>
+      </c>
+      <c r="J180" s="13">
+        <v>37600</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="4">
+        <v>179</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" s="10">
+        <v>14</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E181" s="6">
+        <v>1</v>
+      </c>
+      <c r="F181" s="22">
+        <f t="shared" si="5"/>
+        <v>1.155353009883267E+59</v>
+      </c>
+      <c r="G181" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H181" s="7">
+        <v>8</v>
+      </c>
+      <c r="I181" s="6">
+        <v>0</v>
+      </c>
+      <c r="J181" s="4">
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="4">
+        <v>180</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="15">
+        <v>20</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E182" s="6">
+        <v>1</v>
+      </c>
+      <c r="F182" s="22">
+        <f t="shared" si="5"/>
+        <v>1.363316551662255E+59</v>
+      </c>
+      <c r="G182" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H182" s="16">
+        <v>8</v>
+      </c>
+      <c r="I182" s="15">
+        <v>0</v>
+      </c>
+      <c r="J182" s="13">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="4">
+        <v>181</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="19">
+        <v>31</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E183" s="6">
+        <v>1</v>
+      </c>
+      <c r="F183" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6087135309614608E+59</v>
+      </c>
+      <c r="G183" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H183" s="7">
+        <v>8</v>
+      </c>
+      <c r="I183" s="6">
+        <v>0</v>
+      </c>
+      <c r="J183" s="4">
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="4">
+        <v>182</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" s="6">
+        <v>5</v>
+      </c>
+      <c r="D184" s="6">
+        <v>480000000</v>
+      </c>
+      <c r="E184" s="6">
+        <v>1</v>
+      </c>
+      <c r="F184" s="22">
+        <f t="shared" si="5"/>
+        <v>1.8982819665345237E+59</v>
+      </c>
+      <c r="G184" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H184" s="16">
+        <v>8</v>
+      </c>
+      <c r="I184" s="15">
+        <v>0</v>
+      </c>
+      <c r="J184" s="13">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="4">
+        <v>183</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" s="10">
+        <v>14</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E185" s="6">
+        <v>1</v>
+      </c>
+      <c r="F185" s="22">
+        <f t="shared" si="5"/>
+        <v>2.2399727205107377E+59</v>
+      </c>
+      <c r="G185" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H185" s="7">
+        <v>8</v>
+      </c>
+      <c r="I185" s="6">
+        <v>0</v>
+      </c>
+      <c r="J185" s="4">
+        <v>38600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="4">
+        <v>184</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="15">
+        <v>20</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E186" s="6">
+        <v>1</v>
+      </c>
+      <c r="F186" s="22">
+        <f t="shared" si="5"/>
+        <v>2.6431678102026702E+59</v>
+      </c>
+      <c r="G186" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H186" s="16">
+        <v>8</v>
+      </c>
+      <c r="I186" s="15">
+        <v>0</v>
+      </c>
+      <c r="J186" s="13">
+        <v>38800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="4">
+        <v>185</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" s="19">
+        <v>31</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E187" s="6">
+        <v>1</v>
+      </c>
+      <c r="F187" s="22">
+        <f t="shared" si="5"/>
+        <v>3.1189380160391508E+59</v>
+      </c>
+      <c r="G187" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H187" s="7">
+        <v>8</v>
+      </c>
+      <c r="I187" s="6">
+        <v>0</v>
+      </c>
+      <c r="J187" s="4">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="4">
+        <v>186</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="6">
+        <v>5</v>
+      </c>
+      <c r="D188" s="6">
+        <v>490000000</v>
+      </c>
+      <c r="E188" s="6">
+        <v>1</v>
+      </c>
+      <c r="F188" s="22">
+        <f t="shared" si="5"/>
+        <v>3.6803468589261977E+59</v>
+      </c>
+      <c r="G188" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H188" s="16">
+        <v>8</v>
+      </c>
+      <c r="I188" s="15">
+        <v>0</v>
+      </c>
+      <c r="J188" s="13">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="4">
+        <v>187</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="10">
+        <v>14</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E189" s="6">
+        <v>1</v>
+      </c>
+      <c r="F189" s="22">
+        <f t="shared" si="5"/>
+        <v>4.3428092935329132E+59</v>
+      </c>
+      <c r="G189" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H189" s="7">
+        <v>8</v>
+      </c>
+      <c r="I189" s="6">
+        <v>0</v>
+      </c>
+      <c r="J189" s="4">
+        <v>39400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="4">
+        <v>188</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="15">
+        <v>20</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E190" s="6">
+        <v>1</v>
+      </c>
+      <c r="F190" s="22">
+        <f t="shared" si="5"/>
+        <v>5.1245149663688376E+59</v>
+      </c>
+      <c r="G190" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H190" s="16">
+        <v>8</v>
+      </c>
+      <c r="I190" s="15">
+        <v>0</v>
+      </c>
+      <c r="J190" s="13">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="4">
+        <v>189</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" s="19">
+        <v>31</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E191" s="6">
+        <v>1</v>
+      </c>
+      <c r="F191" s="22">
+        <f t="shared" si="5"/>
+        <v>6.0469276603152285E+59</v>
+      </c>
+      <c r="G191" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H191" s="7">
+        <v>8</v>
+      </c>
+      <c r="I191" s="6">
+        <v>0</v>
+      </c>
+      <c r="J191" s="4">
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" s="4">
+        <v>190</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="6">
+        <v>5</v>
+      </c>
+      <c r="D192" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="E192" s="6">
+        <v>1</v>
+      </c>
+      <c r="F192" s="22">
+        <f t="shared" si="5"/>
+        <v>7.1353746391719693E+59</v>
+      </c>
+      <c r="G192" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H192" s="16">
+        <v>8</v>
+      </c>
+      <c r="I192" s="15">
+        <v>0</v>
+      </c>
+      <c r="J192" s="13">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="4">
+        <v>191</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" s="10">
+        <v>14</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E193" s="6">
+        <v>1</v>
+      </c>
+      <c r="F193" s="22">
+        <f t="shared" si="5"/>
+        <v>8.4197420742229234E+59</v>
+      </c>
+      <c r="G193" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H193" s="7">
+        <v>8</v>
+      </c>
+      <c r="I193" s="6">
+        <v>0</v>
+      </c>
+      <c r="J193" s="4">
+        <v>40200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" s="4">
+        <v>192</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" s="15">
+        <v>20</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E194" s="6">
+        <v>1</v>
+      </c>
+      <c r="F194" s="22">
+        <f t="shared" si="5"/>
+        <v>9.9352956475830486E+59</v>
+      </c>
+      <c r="G194" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H194" s="16">
+        <v>8</v>
+      </c>
+      <c r="I194" s="15">
+        <v>0</v>
+      </c>
+      <c r="J194" s="13">
+        <v>40400</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" s="4">
+        <v>193</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="19">
+        <v>31</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E195" s="6">
+        <v>1</v>
+      </c>
+      <c r="F195" s="22">
+        <f t="shared" si="5"/>
+        <v>1.1723648864147998E+60</v>
+      </c>
+      <c r="G195" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H195" s="7">
+        <v>8</v>
+      </c>
+      <c r="I195" s="6">
+        <v>0</v>
+      </c>
+      <c r="J195" s="4">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="4">
+        <v>194</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" s="6">
+        <v>5</v>
+      </c>
+      <c r="D196" s="6">
+        <v>510000000</v>
+      </c>
+      <c r="E196" s="6">
+        <v>1</v>
+      </c>
+      <c r="F196" s="22">
+        <f t="shared" si="5"/>
+        <v>1.3833905659694637E+60</v>
+      </c>
+      <c r="G196" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H196" s="16">
+        <v>8</v>
+      </c>
+      <c r="I196" s="15">
+        <v>0</v>
+      </c>
+      <c r="J196" s="13">
+        <v>40800</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="4">
+        <v>195</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="10">
+        <v>14</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E197" s="6">
+        <v>1</v>
+      </c>
+      <c r="F197" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6324008678439669E+60</v>
+      </c>
+      <c r="G197" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H197" s="7">
+        <v>8</v>
+      </c>
+      <c r="I197" s="6">
+        <v>0</v>
+      </c>
+      <c r="J197" s="4">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="4">
+        <v>196</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" s="15">
+        <v>20</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E198" s="6">
+        <v>1</v>
+      </c>
+      <c r="F198" s="22">
+        <f t="shared" si="5"/>
+        <v>1.926233024055881E+60</v>
+      </c>
+      <c r="G198" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H198" s="16">
+        <v>8</v>
+      </c>
+      <c r="I198" s="15">
+        <v>0</v>
+      </c>
+      <c r="J198" s="13">
+        <v>41200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="4">
+        <v>197</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" s="19">
+        <v>31</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E199" s="6">
+        <v>1</v>
+      </c>
+      <c r="F199" s="22">
+        <f t="shared" si="5"/>
+        <v>2.2729549683859394E+60</v>
+      </c>
+      <c r="G199" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H199" s="7">
+        <v>8</v>
+      </c>
+      <c r="I199" s="6">
+        <v>0</v>
+      </c>
+      <c r="J199" s="4">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="4">
+        <v>198</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="6">
+        <v>5</v>
+      </c>
+      <c r="D200" s="6">
+        <v>520000000</v>
+      </c>
+      <c r="E200" s="6">
+        <v>1</v>
+      </c>
+      <c r="F200" s="22">
+        <f t="shared" si="5"/>
+        <v>2.6820868626954082E+60</v>
+      </c>
+      <c r="G200" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H200" s="16">
+        <v>8</v>
+      </c>
+      <c r="I200" s="15">
+        <v>0</v>
+      </c>
+      <c r="J200" s="13">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="4">
+        <v>199</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="10">
+        <v>14</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E201" s="6">
+        <v>1</v>
+      </c>
+      <c r="F201" s="22">
+        <f t="shared" si="5"/>
+        <v>3.1648624979805816E+60</v>
+      </c>
+      <c r="G201" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H201" s="7">
+        <v>8</v>
+      </c>
+      <c r="I201" s="6">
+        <v>0</v>
+      </c>
+      <c r="J201" s="4">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="4">
+        <v>200</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" s="15">
+        <v>20</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E202" s="6">
+        <v>1</v>
+      </c>
+      <c r="F202" s="22">
+        <f t="shared" si="5"/>
+        <v>3.7345377476170861E+60</v>
+      </c>
+      <c r="G202" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H202" s="16">
+        <v>8</v>
+      </c>
+      <c r="I202" s="15">
+        <v>0</v>
+      </c>
+      <c r="J202" s="13">
+        <v>42000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E79FB5-5633-406A-B677-94033343EDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D72157B-D4D7-4FCE-A5A5-1FDB370D9FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="110">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,6 +413,66 @@
   </si>
   <si>
     <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,11 +1010,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H195" sqref="H195"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5703,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="22">
-        <f t="shared" ref="F144:F202" si="5">F143*1.18</f>
+        <f t="shared" ref="F144:F203" si="5">F143*1.18</f>
         <v>2.5297664566420924E+56</v>
       </c>
       <c r="G144" s="16">
@@ -7601,7 +7661,7 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="4">
+      <c r="A202" s="17">
         <v>200</v>
       </c>
       <c r="B202" s="9" t="s">
@@ -7631,6 +7691,666 @@
       </c>
       <c r="J202" s="13">
         <v>42000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="4">
+        <v>201</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="19">
+        <v>31</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E203" s="6">
+        <v>1</v>
+      </c>
+      <c r="F203" s="22">
+        <f>F202*1.3</f>
+        <v>4.8548990719022118E+60</v>
+      </c>
+      <c r="G203" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H203" s="16">
+        <v>8</v>
+      </c>
+      <c r="I203" s="15">
+        <v>0</v>
+      </c>
+      <c r="J203" s="13">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="4">
+        <v>202</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="6">
+        <v>5</v>
+      </c>
+      <c r="D204" s="6">
+        <v>530000000</v>
+      </c>
+      <c r="E204" s="6">
+        <v>1</v>
+      </c>
+      <c r="F204" s="22">
+        <f t="shared" ref="F204:F222" si="6">F203*1.3</f>
+        <v>6.3113687934728755E+60</v>
+      </c>
+      <c r="G204" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H204" s="7">
+        <v>8</v>
+      </c>
+      <c r="I204" s="6">
+        <v>0</v>
+      </c>
+      <c r="J204" s="4">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="4">
+        <v>203</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C205" s="10">
+        <v>14</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E205" s="6">
+        <v>1</v>
+      </c>
+      <c r="F205" s="22">
+        <f t="shared" si="6"/>
+        <v>8.204779431514738E+60</v>
+      </c>
+      <c r="G205" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H205" s="16">
+        <v>8</v>
+      </c>
+      <c r="I205" s="15">
+        <v>0</v>
+      </c>
+      <c r="J205" s="13">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="4">
+        <v>204</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" s="15">
+        <v>20</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E206" s="6">
+        <v>1</v>
+      </c>
+      <c r="F206" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0666213260969159E+61</v>
+      </c>
+      <c r="G206" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H206" s="7">
+        <v>8</v>
+      </c>
+      <c r="I206" s="6">
+        <v>0</v>
+      </c>
+      <c r="J206" s="4">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="4">
+        <v>205</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="19">
+        <v>31</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E207" s="6">
+        <v>1</v>
+      </c>
+      <c r="F207" s="22">
+        <f t="shared" si="6"/>
+        <v>1.3866077239259908E+61</v>
+      </c>
+      <c r="G207" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H207" s="16">
+        <v>8</v>
+      </c>
+      <c r="I207" s="15">
+        <v>0</v>
+      </c>
+      <c r="J207" s="13">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" s="4">
+        <v>206</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C208" s="6">
+        <v>5</v>
+      </c>
+      <c r="D208" s="6">
+        <v>540000000</v>
+      </c>
+      <c r="E208" s="6">
+        <v>1</v>
+      </c>
+      <c r="F208" s="22">
+        <f t="shared" si="6"/>
+        <v>1.8025900411037881E+61</v>
+      </c>
+      <c r="G208" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H208" s="16">
+        <v>8</v>
+      </c>
+      <c r="I208" s="15">
+        <v>0</v>
+      </c>
+      <c r="J208" s="13">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" s="4">
+        <v>207</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209" s="10">
+        <v>14</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E209" s="6">
+        <v>1</v>
+      </c>
+      <c r="F209" s="22">
+        <f t="shared" si="6"/>
+        <v>2.3433670534349248E+61</v>
+      </c>
+      <c r="G209" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H209" s="7">
+        <v>8</v>
+      </c>
+      <c r="I209" s="6">
+        <v>0</v>
+      </c>
+      <c r="J209" s="4">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="4">
+        <v>208</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="15">
+        <v>20</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E210" s="6">
+        <v>1</v>
+      </c>
+      <c r="F210" s="22">
+        <f t="shared" si="6"/>
+        <v>3.0463771694654023E+61</v>
+      </c>
+      <c r="G210" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H210" s="16">
+        <v>8</v>
+      </c>
+      <c r="I210" s="15">
+        <v>0</v>
+      </c>
+      <c r="J210" s="13">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" s="4">
+        <v>209</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" s="19">
+        <v>31</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E211" s="6">
+        <v>1</v>
+      </c>
+      <c r="F211" s="22">
+        <f t="shared" si="6"/>
+        <v>3.9602903203050228E+61</v>
+      </c>
+      <c r="G211" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H211" s="7">
+        <v>8</v>
+      </c>
+      <c r="I211" s="6">
+        <v>0</v>
+      </c>
+      <c r="J211" s="4">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" s="4">
+        <v>210</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="6">
+        <v>5</v>
+      </c>
+      <c r="D212" s="6">
+        <v>550000000</v>
+      </c>
+      <c r="E212" s="6">
+        <v>1</v>
+      </c>
+      <c r="F212" s="22">
+        <f t="shared" si="6"/>
+        <v>5.1483774163965303E+61</v>
+      </c>
+      <c r="G212" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H212" s="16">
+        <v>8</v>
+      </c>
+      <c r="I212" s="15">
+        <v>0</v>
+      </c>
+      <c r="J212" s="13">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="4">
+        <v>211</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C213" s="10">
+        <v>14</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E213" s="6">
+        <v>1</v>
+      </c>
+      <c r="F213" s="22">
+        <f t="shared" si="6"/>
+        <v>6.6928906413154898E+61</v>
+      </c>
+      <c r="G213" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H213" s="16">
+        <v>8</v>
+      </c>
+      <c r="I213" s="15">
+        <v>0</v>
+      </c>
+      <c r="J213" s="13">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="4">
+        <v>212</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="15">
+        <v>20</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E214" s="6">
+        <v>1</v>
+      </c>
+      <c r="F214" s="22">
+        <f t="shared" si="6"/>
+        <v>8.7007578337101374E+61</v>
+      </c>
+      <c r="G214" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H214" s="7">
+        <v>8</v>
+      </c>
+      <c r="I214" s="6">
+        <v>0</v>
+      </c>
+      <c r="J214" s="4">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="4">
+        <v>213</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" s="19">
+        <v>31</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E215" s="6">
+        <v>1</v>
+      </c>
+      <c r="F215" s="22">
+        <f t="shared" si="6"/>
+        <v>1.1310985183823179E+62</v>
+      </c>
+      <c r="G215" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H215" s="16">
+        <v>8</v>
+      </c>
+      <c r="I215" s="15">
+        <v>0</v>
+      </c>
+      <c r="J215" s="13">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" s="4">
+        <v>214</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C216" s="6">
+        <v>5</v>
+      </c>
+      <c r="D216" s="6">
+        <v>560000000</v>
+      </c>
+      <c r="E216" s="6">
+        <v>1</v>
+      </c>
+      <c r="F216" s="22">
+        <f t="shared" si="6"/>
+        <v>1.4704280738970133E+62</v>
+      </c>
+      <c r="G216" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H216" s="7">
+        <v>8</v>
+      </c>
+      <c r="I216" s="6">
+        <v>0</v>
+      </c>
+      <c r="J216" s="4">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="4">
+        <v>215</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C217" s="10">
+        <v>14</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E217" s="6">
+        <v>1</v>
+      </c>
+      <c r="F217" s="22">
+        <f t="shared" si="6"/>
+        <v>1.9115564960661174E+62</v>
+      </c>
+      <c r="G217" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H217" s="16">
+        <v>8</v>
+      </c>
+      <c r="I217" s="15">
+        <v>0</v>
+      </c>
+      <c r="J217" s="13">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" s="4">
+        <v>216</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" s="15">
+        <v>20</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E218" s="6">
+        <v>1</v>
+      </c>
+      <c r="F218" s="22">
+        <f t="shared" si="6"/>
+        <v>2.4850234448859527E+62</v>
+      </c>
+      <c r="G218" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H218" s="16">
+        <v>8</v>
+      </c>
+      <c r="I218" s="15">
+        <v>0</v>
+      </c>
+      <c r="J218" s="13">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" s="4">
+        <v>217</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C219" s="19">
+        <v>31</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E219" s="6">
+        <v>1</v>
+      </c>
+      <c r="F219" s="22">
+        <f t="shared" si="6"/>
+        <v>3.2305304783517384E+62</v>
+      </c>
+      <c r="G219" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H219" s="7">
+        <v>8</v>
+      </c>
+      <c r="I219" s="6">
+        <v>0</v>
+      </c>
+      <c r="J219" s="4">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" s="4">
+        <v>218</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220" s="6">
+        <v>5</v>
+      </c>
+      <c r="D220" s="6">
+        <v>570000000</v>
+      </c>
+      <c r="E220" s="6">
+        <v>1</v>
+      </c>
+      <c r="F220" s="22">
+        <f t="shared" si="6"/>
+        <v>4.1996896218572601E+62</v>
+      </c>
+      <c r="G220" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H220" s="16">
+        <v>8</v>
+      </c>
+      <c r="I220" s="15">
+        <v>0</v>
+      </c>
+      <c r="J220" s="13">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" s="4">
+        <v>219</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" s="10">
+        <v>14</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E221" s="6">
+        <v>1</v>
+      </c>
+      <c r="F221" s="22">
+        <f t="shared" si="6"/>
+        <v>5.4595965084144386E+62</v>
+      </c>
+      <c r="G221" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H221" s="7">
+        <v>8</v>
+      </c>
+      <c r="I221" s="6">
+        <v>0</v>
+      </c>
+      <c r="J221" s="4">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" s="4">
+        <v>220</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="15">
+        <v>20</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E222" s="6">
+        <v>1</v>
+      </c>
+      <c r="F222" s="22">
+        <f t="shared" si="6"/>
+        <v>7.0974754609387704E+62</v>
+      </c>
+      <c r="G222" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H222" s="16">
+        <v>8</v>
+      </c>
+      <c r="I222" s="15">
+        <v>0</v>
+      </c>
+      <c r="J222" s="13">
+        <v>46000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D72157B-D4D7-4FCE-A5A5-1FDB370D9FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE09E5BD-9EA8-4077-8CDD-69172ED86D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="125">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +473,66 @@
   </si>
   <si>
     <t>48000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>770</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F227" sqref="F227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5763,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="22">
-        <f t="shared" ref="F144:F203" si="5">F143*1.18</f>
+        <f t="shared" ref="F144:F202" si="5">F143*1.18</f>
         <v>2.5297664566420924E+56</v>
       </c>
       <c r="G144" s="16">
@@ -8351,6 +8411,666 @@
       </c>
       <c r="J222" s="13">
         <v>46000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" s="4">
+        <v>221</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" s="19">
+        <v>31</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E223" s="6">
+        <v>1</v>
+      </c>
+      <c r="F223" s="22">
+        <f>F222*1.8</f>
+        <v>1.2775455829689787E+63</v>
+      </c>
+      <c r="G223" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H223" s="16">
+        <v>8</v>
+      </c>
+      <c r="I223" s="15">
+        <v>0</v>
+      </c>
+      <c r="J223" s="13">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" s="4">
+        <v>222</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224" s="6">
+        <v>5</v>
+      </c>
+      <c r="D224" s="6">
+        <v>580000000</v>
+      </c>
+      <c r="E224" s="6">
+        <v>1</v>
+      </c>
+      <c r="F224" s="22">
+        <f t="shared" ref="F224:F242" si="7">F223*1.8</f>
+        <v>2.2995820493441617E+63</v>
+      </c>
+      <c r="G224" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H224" s="7">
+        <v>8</v>
+      </c>
+      <c r="I224" s="6">
+        <v>0</v>
+      </c>
+      <c r="J224" s="4">
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" s="4">
+        <v>223</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C225" s="10">
+        <v>14</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E225" s="6">
+        <v>1</v>
+      </c>
+      <c r="F225" s="22">
+        <f t="shared" si="7"/>
+        <v>4.1392476888194911E+63</v>
+      </c>
+      <c r="G225" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H225" s="16">
+        <v>8</v>
+      </c>
+      <c r="I225" s="15">
+        <v>0</v>
+      </c>
+      <c r="J225" s="13">
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="4">
+        <v>224</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226" s="15">
+        <v>20</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E226" s="6">
+        <v>1</v>
+      </c>
+      <c r="F226" s="22">
+        <f t="shared" si="7"/>
+        <v>7.4506458398750837E+63</v>
+      </c>
+      <c r="G226" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H226" s="7">
+        <v>8</v>
+      </c>
+      <c r="I226" s="6">
+        <v>0</v>
+      </c>
+      <c r="J226" s="4">
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" s="4">
+        <v>225</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" s="19">
+        <v>31</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E227" s="6">
+        <v>1</v>
+      </c>
+      <c r="F227" s="22">
+        <f t="shared" si="7"/>
+        <v>1.341116251177515E+64</v>
+      </c>
+      <c r="G227" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H227" s="16">
+        <v>8</v>
+      </c>
+      <c r="I227" s="15">
+        <v>0</v>
+      </c>
+      <c r="J227" s="13">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="4">
+        <v>226</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" s="6">
+        <v>5</v>
+      </c>
+      <c r="D228" s="6">
+        <v>590000000</v>
+      </c>
+      <c r="E228" s="6">
+        <v>1</v>
+      </c>
+      <c r="F228" s="22">
+        <f t="shared" si="7"/>
+        <v>2.4140092521195271E+64</v>
+      </c>
+      <c r="G228" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H228" s="16">
+        <v>8</v>
+      </c>
+      <c r="I228" s="15">
+        <v>0</v>
+      </c>
+      <c r="J228" s="13">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="4">
+        <v>227</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C229" s="10">
+        <v>14</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E229" s="6">
+        <v>1</v>
+      </c>
+      <c r="F229" s="22">
+        <f t="shared" si="7"/>
+        <v>4.3452166538151488E+64</v>
+      </c>
+      <c r="G229" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H229" s="7">
+        <v>8</v>
+      </c>
+      <c r="I229" s="6">
+        <v>0</v>
+      </c>
+      <c r="J229" s="4">
+        <v>47400</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" s="4">
+        <v>228</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" s="15">
+        <v>20</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E230" s="6">
+        <v>1</v>
+      </c>
+      <c r="F230" s="22">
+        <f t="shared" si="7"/>
+        <v>7.8213899768672674E+64</v>
+      </c>
+      <c r="G230" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H230" s="16">
+        <v>8</v>
+      </c>
+      <c r="I230" s="15">
+        <v>0</v>
+      </c>
+      <c r="J230" s="13">
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" s="4">
+        <v>229</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" s="19">
+        <v>31</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E231" s="6">
+        <v>1</v>
+      </c>
+      <c r="F231" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4078501958361081E+65</v>
+      </c>
+      <c r="G231" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H231" s="7">
+        <v>8</v>
+      </c>
+      <c r="I231" s="6">
+        <v>0</v>
+      </c>
+      <c r="J231" s="4">
+        <v>47800</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="4">
+        <v>230</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C232" s="6">
+        <v>5</v>
+      </c>
+      <c r="D232" s="6">
+        <v>600000000</v>
+      </c>
+      <c r="E232" s="6">
+        <v>1</v>
+      </c>
+      <c r="F232" s="22">
+        <f t="shared" si="7"/>
+        <v>2.5341303525049944E+65</v>
+      </c>
+      <c r="G232" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H232" s="16">
+        <v>8</v>
+      </c>
+      <c r="I232" s="15">
+        <v>0</v>
+      </c>
+      <c r="J232" s="13">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" s="4">
+        <v>231</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" s="10">
+        <v>14</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E233" s="6">
+        <v>1</v>
+      </c>
+      <c r="F233" s="22">
+        <f t="shared" si="7"/>
+        <v>4.5614346345089905E+65</v>
+      </c>
+      <c r="G233" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H233" s="16">
+        <v>8</v>
+      </c>
+      <c r="I233" s="15">
+        <v>0</v>
+      </c>
+      <c r="J233" s="13">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" s="4">
+        <v>232</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" s="15">
+        <v>20</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E234" s="6">
+        <v>1</v>
+      </c>
+      <c r="F234" s="22">
+        <f t="shared" si="7"/>
+        <v>8.2105823421161828E+65</v>
+      </c>
+      <c r="G234" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H234" s="7">
+        <v>8</v>
+      </c>
+      <c r="I234" s="6">
+        <v>0</v>
+      </c>
+      <c r="J234" s="4">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="4">
+        <v>233</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" s="19">
+        <v>31</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E235" s="6">
+        <v>1</v>
+      </c>
+      <c r="F235" s="22">
+        <f t="shared" si="7"/>
+        <v>1.477904821580913E+66</v>
+      </c>
+      <c r="G235" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H235" s="16">
+        <v>8</v>
+      </c>
+      <c r="I235" s="15">
+        <v>0</v>
+      </c>
+      <c r="J235" s="13">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" s="4">
+        <v>234</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C236" s="6">
+        <v>5</v>
+      </c>
+      <c r="D236" s="6">
+        <v>610000000</v>
+      </c>
+      <c r="E236" s="6">
+        <v>1</v>
+      </c>
+      <c r="F236" s="22">
+        <f t="shared" si="7"/>
+        <v>2.6602286788456435E+66</v>
+      </c>
+      <c r="G236" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H236" s="7">
+        <v>8</v>
+      </c>
+      <c r="I236" s="6">
+        <v>0</v>
+      </c>
+      <c r="J236" s="4">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" s="4">
+        <v>235</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237" s="10">
+        <v>14</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E237" s="6">
+        <v>1</v>
+      </c>
+      <c r="F237" s="22">
+        <f t="shared" si="7"/>
+        <v>4.7884116219221584E+66</v>
+      </c>
+      <c r="G237" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H237" s="16">
+        <v>8</v>
+      </c>
+      <c r="I237" s="15">
+        <v>0</v>
+      </c>
+      <c r="J237" s="13">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" s="4">
+        <v>236</v>
+      </c>
+      <c r="B238" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238" s="15">
+        <v>20</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E238" s="6">
+        <v>1</v>
+      </c>
+      <c r="F238" s="22">
+        <f t="shared" si="7"/>
+        <v>8.6191409194598849E+66</v>
+      </c>
+      <c r="G238" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H238" s="16">
+        <v>8</v>
+      </c>
+      <c r="I238" s="15">
+        <v>0</v>
+      </c>
+      <c r="J238" s="13">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" s="4">
+        <v>237</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239" s="19">
+        <v>31</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E239" s="6">
+        <v>1</v>
+      </c>
+      <c r="F239" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5514453655027794E+67</v>
+      </c>
+      <c r="G239" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H239" s="7">
+        <v>8</v>
+      </c>
+      <c r="I239" s="6">
+        <v>0</v>
+      </c>
+      <c r="J239" s="4">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" s="4">
+        <v>238</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" s="6">
+        <v>5</v>
+      </c>
+      <c r="D240" s="6">
+        <v>620000000</v>
+      </c>
+      <c r="E240" s="6">
+        <v>1</v>
+      </c>
+      <c r="F240" s="22">
+        <f t="shared" si="7"/>
+        <v>2.7926016579050033E+67</v>
+      </c>
+      <c r="G240" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H240" s="16">
+        <v>8</v>
+      </c>
+      <c r="I240" s="15">
+        <v>0</v>
+      </c>
+      <c r="J240" s="13">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" s="4">
+        <v>239</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C241" s="10">
+        <v>14</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E241" s="6">
+        <v>1</v>
+      </c>
+      <c r="F241" s="22">
+        <f t="shared" si="7"/>
+        <v>5.0266829842290063E+67</v>
+      </c>
+      <c r="G241" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H241" s="7">
+        <v>8</v>
+      </c>
+      <c r="I241" s="6">
+        <v>0</v>
+      </c>
+      <c r="J241" s="4">
+        <v>49800</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
+        <v>240</v>
+      </c>
+      <c r="B242" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" s="15">
+        <v>20</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E242" s="6">
+        <v>1</v>
+      </c>
+      <c r="F242" s="22">
+        <f t="shared" si="7"/>
+        <v>9.0480293716122116E+67</v>
+      </c>
+      <c r="G242" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H242" s="16">
+        <v>8</v>
+      </c>
+      <c r="I242" s="15">
+        <v>0</v>
+      </c>
+      <c r="J242" s="13">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE09E5BD-9EA8-4077-8CDD-69172ED86D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2A488F-F90B-4AD6-BE1C-39510FC5B879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5985" yWindow="2610" windowWidth="25080" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="140">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,66 @@
   </si>
   <si>
     <t>58000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,11 +1130,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J242"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F227" sqref="F227"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8463,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="22">
-        <f t="shared" ref="F224:F242" si="7">F223*1.8</f>
+        <f t="shared" ref="F224:F262" si="7">F223*1.8</f>
         <v>2.2995820493441617E+63</v>
       </c>
       <c r="G224" s="7">
@@ -9071,6 +9131,666 @@
       </c>
       <c r="J242" s="13">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A243" s="17">
+        <v>241</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C243" s="19">
+        <v>31</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E243" s="6">
+        <v>1</v>
+      </c>
+      <c r="F243" s="22">
+        <f t="shared" si="7"/>
+        <v>1.6286452868901981E+68</v>
+      </c>
+      <c r="G243" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H243" s="16">
+        <v>8</v>
+      </c>
+      <c r="I243" s="15">
+        <v>0</v>
+      </c>
+      <c r="J243" s="13">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A244" s="4">
+        <v>242</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C244" s="6">
+        <v>5</v>
+      </c>
+      <c r="D244" s="6">
+        <v>630000000</v>
+      </c>
+      <c r="E244" s="6">
+        <v>1</v>
+      </c>
+      <c r="F244" s="22">
+        <f t="shared" si="7"/>
+        <v>2.9315615164023567E+68</v>
+      </c>
+      <c r="G244" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H244" s="7">
+        <v>8</v>
+      </c>
+      <c r="I244" s="6">
+        <v>0</v>
+      </c>
+      <c r="J244" s="4">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A245" s="4">
+        <v>243</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C245" s="10">
+        <v>14</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E245" s="6">
+        <v>1</v>
+      </c>
+      <c r="F245" s="22">
+        <f t="shared" si="7"/>
+        <v>5.2768107295242426E+68</v>
+      </c>
+      <c r="G245" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H245" s="16">
+        <v>8</v>
+      </c>
+      <c r="I245" s="15">
+        <v>0</v>
+      </c>
+      <c r="J245" s="13">
+        <v>50600</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" s="4">
+        <v>244</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" s="15">
+        <v>20</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E246" s="6">
+        <v>1</v>
+      </c>
+      <c r="F246" s="22">
+        <f t="shared" si="7"/>
+        <v>9.4982593131436376E+68</v>
+      </c>
+      <c r="G246" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H246" s="7">
+        <v>8</v>
+      </c>
+      <c r="I246" s="6">
+        <v>0</v>
+      </c>
+      <c r="J246" s="4">
+        <v>50800</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" s="4">
+        <v>245</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C247" s="19">
+        <v>31</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E247" s="6">
+        <v>1</v>
+      </c>
+      <c r="F247" s="22">
+        <f t="shared" si="7"/>
+        <v>1.7096866763658548E+69</v>
+      </c>
+      <c r="G247" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H247" s="16">
+        <v>8</v>
+      </c>
+      <c r="I247" s="15">
+        <v>0</v>
+      </c>
+      <c r="J247" s="13">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" s="4">
+        <v>246</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" s="6">
+        <v>5</v>
+      </c>
+      <c r="D248" s="6">
+        <v>640000000</v>
+      </c>
+      <c r="E248" s="6">
+        <v>1</v>
+      </c>
+      <c r="F248" s="22">
+        <f t="shared" si="7"/>
+        <v>3.0774360174585386E+69</v>
+      </c>
+      <c r="G248" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H248" s="16">
+        <v>8</v>
+      </c>
+      <c r="I248" s="15">
+        <v>0</v>
+      </c>
+      <c r="J248" s="13">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A249" s="4">
+        <v>247</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C249" s="10">
+        <v>14</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E249" s="6">
+        <v>1</v>
+      </c>
+      <c r="F249" s="22">
+        <f t="shared" si="7"/>
+        <v>5.5393848314253699E+69</v>
+      </c>
+      <c r="G249" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H249" s="7">
+        <v>8</v>
+      </c>
+      <c r="I249" s="6">
+        <v>0</v>
+      </c>
+      <c r="J249" s="4">
+        <v>51400</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" s="4">
+        <v>248</v>
+      </c>
+      <c r="B250" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" s="15">
+        <v>20</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E250" s="6">
+        <v>1</v>
+      </c>
+      <c r="F250" s="22">
+        <f t="shared" si="7"/>
+        <v>9.9708926965656665E+69</v>
+      </c>
+      <c r="G250" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H250" s="16">
+        <v>8</v>
+      </c>
+      <c r="I250" s="15">
+        <v>0</v>
+      </c>
+      <c r="J250" s="13">
+        <v>51600</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" s="4">
+        <v>249</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251" s="19">
+        <v>31</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E251" s="6">
+        <v>1</v>
+      </c>
+      <c r="F251" s="22">
+        <f t="shared" si="7"/>
+        <v>1.79476068538182E+70</v>
+      </c>
+      <c r="G251" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H251" s="7">
+        <v>8</v>
+      </c>
+      <c r="I251" s="6">
+        <v>0</v>
+      </c>
+      <c r="J251" s="4">
+        <v>51800</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" s="4">
+        <v>250</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C252" s="6">
+        <v>5</v>
+      </c>
+      <c r="D252" s="6">
+        <v>650000000</v>
+      </c>
+      <c r="E252" s="6">
+        <v>1</v>
+      </c>
+      <c r="F252" s="22">
+        <f t="shared" si="7"/>
+        <v>3.2305692336872761E+70</v>
+      </c>
+      <c r="G252" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H252" s="16">
+        <v>8</v>
+      </c>
+      <c r="I252" s="15">
+        <v>0</v>
+      </c>
+      <c r="J252" s="13">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" s="4">
+        <v>251</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253" s="10">
+        <v>14</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E253" s="6">
+        <v>1</v>
+      </c>
+      <c r="F253" s="22">
+        <f t="shared" si="7"/>
+        <v>5.8150246206370967E+70</v>
+      </c>
+      <c r="G253" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H253" s="16">
+        <v>8</v>
+      </c>
+      <c r="I253" s="15">
+        <v>0</v>
+      </c>
+      <c r="J253" s="13">
+        <v>52200</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" s="4">
+        <v>252</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" s="15">
+        <v>20</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E254" s="6">
+        <v>1</v>
+      </c>
+      <c r="F254" s="22">
+        <f t="shared" si="7"/>
+        <v>1.0467044317146774E+71</v>
+      </c>
+      <c r="G254" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H254" s="7">
+        <v>8</v>
+      </c>
+      <c r="I254" s="6">
+        <v>0</v>
+      </c>
+      <c r="J254" s="4">
+        <v>52400</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" s="4">
+        <v>253</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" s="19">
+        <v>31</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E255" s="6">
+        <v>1</v>
+      </c>
+      <c r="F255" s="22">
+        <f t="shared" si="7"/>
+        <v>1.8840679770864193E+71</v>
+      </c>
+      <c r="G255" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H255" s="16">
+        <v>8</v>
+      </c>
+      <c r="I255" s="15">
+        <v>0</v>
+      </c>
+      <c r="J255" s="13">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256" s="4">
+        <v>254</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C256" s="6">
+        <v>5</v>
+      </c>
+      <c r="D256" s="6">
+        <v>660000000</v>
+      </c>
+      <c r="E256" s="6">
+        <v>1</v>
+      </c>
+      <c r="F256" s="22">
+        <f t="shared" si="7"/>
+        <v>3.391322358755555E+71</v>
+      </c>
+      <c r="G256" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H256" s="7">
+        <v>8</v>
+      </c>
+      <c r="I256" s="6">
+        <v>0</v>
+      </c>
+      <c r="J256" s="4">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="4">
+        <v>255</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C257" s="10">
+        <v>14</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E257" s="6">
+        <v>1</v>
+      </c>
+      <c r="F257" s="22">
+        <f t="shared" si="7"/>
+        <v>6.1043802457599993E+71</v>
+      </c>
+      <c r="G257" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H257" s="16">
+        <v>8</v>
+      </c>
+      <c r="I257" s="15">
+        <v>0</v>
+      </c>
+      <c r="J257" s="13">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="4">
+        <v>256</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" s="15">
+        <v>20</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E258" s="6">
+        <v>1</v>
+      </c>
+      <c r="F258" s="22">
+        <f t="shared" si="7"/>
+        <v>1.0987884442367999E+72</v>
+      </c>
+      <c r="G258" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H258" s="16">
+        <v>8</v>
+      </c>
+      <c r="I258" s="15">
+        <v>0</v>
+      </c>
+      <c r="J258" s="13">
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" s="4">
+        <v>257</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" s="19">
+        <v>31</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E259" s="6">
+        <v>1</v>
+      </c>
+      <c r="F259" s="22">
+        <f t="shared" si="7"/>
+        <v>1.97781919962624E+72</v>
+      </c>
+      <c r="G259" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H259" s="7">
+        <v>8</v>
+      </c>
+      <c r="I259" s="6">
+        <v>0</v>
+      </c>
+      <c r="J259" s="4">
+        <v>53400</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" s="4">
+        <v>258</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" s="6">
+        <v>5</v>
+      </c>
+      <c r="D260" s="6">
+        <v>670000000</v>
+      </c>
+      <c r="E260" s="6">
+        <v>1</v>
+      </c>
+      <c r="F260" s="22">
+        <f t="shared" si="7"/>
+        <v>3.5600745593272318E+72</v>
+      </c>
+      <c r="G260" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H260" s="16">
+        <v>8</v>
+      </c>
+      <c r="I260" s="15">
+        <v>0</v>
+      </c>
+      <c r="J260" s="13">
+        <v>53600</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" s="4">
+        <v>259</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" s="10">
+        <v>14</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E261" s="6">
+        <v>1</v>
+      </c>
+      <c r="F261" s="22">
+        <f t="shared" si="7"/>
+        <v>6.408134206789017E+72</v>
+      </c>
+      <c r="G261" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H261" s="7">
+        <v>8</v>
+      </c>
+      <c r="I261" s="6">
+        <v>0</v>
+      </c>
+      <c r="J261" s="4">
+        <v>53800</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" s="4">
+        <v>260</v>
+      </c>
+      <c r="B262" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" s="15">
+        <v>20</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E262" s="6">
+        <v>1</v>
+      </c>
+      <c r="F262" s="22">
+        <f t="shared" si="7"/>
+        <v>1.1534641572220231E+73</v>
+      </c>
+      <c r="G262" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H262" s="16">
+        <v>8</v>
+      </c>
+      <c r="I262" s="15">
+        <v>0</v>
+      </c>
+      <c r="J262" s="13">
+        <v>54000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2A488F-F90B-4AD6-BE1C-39510FC5B879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8370F436-EF7F-457A-A128-F88478279FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="2610" windowWidth="25080" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="144">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,22 @@
   </si>
   <si>
     <t>68000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,11 +1146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J262"/>
+  <dimension ref="A1:J282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D259" sqref="D259"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8523,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="22">
-        <f t="shared" ref="F224:F262" si="7">F223*1.8</f>
+        <f t="shared" ref="F224:F282" si="7">F223*1.8</f>
         <v>2.2995820493441617E+63</v>
       </c>
       <c r="G224" s="7">
@@ -9791,6 +9807,687 @@
       </c>
       <c r="J262" s="13">
         <v>54000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" s="4">
+        <v>261</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263" s="19">
+        <v>31</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E263" s="6">
+        <v>1</v>
+      </c>
+      <c r="F263" s="22">
+        <f t="shared" si="7"/>
+        <v>2.0762354829996418E+73</v>
+      </c>
+      <c r="G263" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H263" s="7">
+        <v>8</v>
+      </c>
+      <c r="I263" s="6">
+        <v>0</v>
+      </c>
+      <c r="J263" s="4">
+        <v>54200</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="4">
+        <v>262</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264" s="6">
+        <v>5</v>
+      </c>
+      <c r="D264" s="6">
+        <v>680000000</v>
+      </c>
+      <c r="E264" s="6">
+        <v>1</v>
+      </c>
+      <c r="F264" s="22">
+        <f t="shared" si="7"/>
+        <v>3.7372238693993552E+73</v>
+      </c>
+      <c r="G264" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H264" s="16">
+        <v>8</v>
+      </c>
+      <c r="I264" s="15">
+        <v>0</v>
+      </c>
+      <c r="J264" s="13">
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="4">
+        <v>263</v>
+      </c>
+      <c r="B265" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" s="10">
+        <v>14</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E265" s="6">
+        <v>1</v>
+      </c>
+      <c r="F265" s="22">
+        <f t="shared" si="7"/>
+        <v>6.727002964918839E+73</v>
+      </c>
+      <c r="G265" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H265" s="7">
+        <v>8</v>
+      </c>
+      <c r="I265" s="6">
+        <v>0</v>
+      </c>
+      <c r="J265" s="4">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="4">
+        <v>264</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C266" s="15">
+        <v>20</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E266" s="6">
+        <v>1</v>
+      </c>
+      <c r="F266" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2108605336853911E+74</v>
+      </c>
+      <c r="G266" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H266" s="16">
+        <v>8</v>
+      </c>
+      <c r="I266" s="15">
+        <v>0</v>
+      </c>
+      <c r="J266" s="13">
+        <v>54800</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" s="4">
+        <v>265</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="19">
+        <v>31</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E267" s="6">
+        <v>1</v>
+      </c>
+      <c r="F267" s="22">
+        <f t="shared" si="7"/>
+        <v>2.1795489606337041E+74</v>
+      </c>
+      <c r="G267" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H267" s="7">
+        <v>8</v>
+      </c>
+      <c r="I267" s="6">
+        <v>0</v>
+      </c>
+      <c r="J267" s="4">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="4">
+        <v>266</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="6">
+        <v>5</v>
+      </c>
+      <c r="D268" s="6">
+        <f>IF(C268=5,QUOTIENT(A268,4)*10000000+30000000,
+IF(C268=14,QUOTIENT(A268,4)*10+180,
+IF(C268=20,QUOTIENT(A268,4)*2000-62000,
+IF(C268=31,QUOTIENT(A268,4)*1-6,))))</f>
+        <v>690000000</v>
+      </c>
+      <c r="E268" s="6">
+        <v>1</v>
+      </c>
+      <c r="F268" s="22">
+        <f t="shared" si="7"/>
+        <v>3.9231881291406675E+74</v>
+      </c>
+      <c r="G268" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H268" s="16">
+        <v>8</v>
+      </c>
+      <c r="I268" s="15">
+        <v>0</v>
+      </c>
+      <c r="J268" s="13">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="4">
+        <v>267</v>
+      </c>
+      <c r="B269" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269" s="10">
+        <v>14</v>
+      </c>
+      <c r="D269" s="1">
+        <f t="shared" ref="D269:D282" si="8">IF(C269=5,QUOTIENT(A269,4)*10000000+30000000,
+IF(C269=14,QUOTIENT(A269,4)*10+180,
+IF(C269=20,QUOTIENT(A269,4)*2000-62000,
+IF(C269=31,QUOTIENT(A269,4)*1-6,))))</f>
+        <v>840</v>
+      </c>
+      <c r="E269" s="6">
+        <v>1</v>
+      </c>
+      <c r="F269" s="22">
+        <f t="shared" si="7"/>
+        <v>7.0617386324532015E+74</v>
+      </c>
+      <c r="G269" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H269" s="7">
+        <v>8</v>
+      </c>
+      <c r="I269" s="6">
+        <v>0</v>
+      </c>
+      <c r="J269" s="4">
+        <v>55400</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" s="4">
+        <v>268</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C270" s="15">
+        <v>20</v>
+      </c>
+      <c r="D270" s="1">
+        <f t="shared" si="8"/>
+        <v>72000</v>
+      </c>
+      <c r="E270" s="6">
+        <v>1</v>
+      </c>
+      <c r="F270" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2711129538415763E+75</v>
+      </c>
+      <c r="G270" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H270" s="16">
+        <v>8</v>
+      </c>
+      <c r="I270" s="15">
+        <v>0</v>
+      </c>
+      <c r="J270" s="13">
+        <v>55600</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="4">
+        <v>269</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271" s="19">
+        <v>31</v>
+      </c>
+      <c r="D271" s="1">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="E271" s="6">
+        <v>1</v>
+      </c>
+      <c r="F271" s="22">
+        <f t="shared" si="7"/>
+        <v>2.2880033169148373E+75</v>
+      </c>
+      <c r="G271" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H271" s="7">
+        <v>8</v>
+      </c>
+      <c r="I271" s="6">
+        <v>0</v>
+      </c>
+      <c r="J271" s="4">
+        <v>55800</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="4">
+        <v>270</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C272" s="6">
+        <v>5</v>
+      </c>
+      <c r="D272" s="6">
+        <f t="shared" si="8"/>
+        <v>700000000</v>
+      </c>
+      <c r="E272" s="6">
+        <v>1</v>
+      </c>
+      <c r="F272" s="22">
+        <f t="shared" si="7"/>
+        <v>4.1184059704467071E+75</v>
+      </c>
+      <c r="G272" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H272" s="16">
+        <v>8</v>
+      </c>
+      <c r="I272" s="15">
+        <v>0</v>
+      </c>
+      <c r="J272" s="13">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="4">
+        <v>271</v>
+      </c>
+      <c r="B273" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273" s="10">
+        <v>14</v>
+      </c>
+      <c r="D273" s="1">
+        <f t="shared" si="8"/>
+        <v>850</v>
+      </c>
+      <c r="E273" s="6">
+        <v>1</v>
+      </c>
+      <c r="F273" s="22">
+        <f t="shared" si="7"/>
+        <v>7.4131307468040728E+75</v>
+      </c>
+      <c r="G273" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H273" s="7">
+        <v>8</v>
+      </c>
+      <c r="I273" s="6">
+        <v>0</v>
+      </c>
+      <c r="J273" s="4">
+        <v>56200</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="4">
+        <v>272</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274" s="15">
+        <v>20</v>
+      </c>
+      <c r="D274" s="1">
+        <f t="shared" si="8"/>
+        <v>74000</v>
+      </c>
+      <c r="E274" s="6">
+        <v>1</v>
+      </c>
+      <c r="F274" s="22">
+        <f t="shared" si="7"/>
+        <v>1.3343635344247332E+76</v>
+      </c>
+      <c r="G274" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H274" s="16">
+        <v>8</v>
+      </c>
+      <c r="I274" s="15">
+        <v>0</v>
+      </c>
+      <c r="J274" s="13">
+        <v>56400</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="4">
+        <v>273</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C275" s="19">
+        <v>31</v>
+      </c>
+      <c r="D275" s="1">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="E275" s="6">
+        <v>1</v>
+      </c>
+      <c r="F275" s="22">
+        <f t="shared" si="7"/>
+        <v>2.4018543619645199E+76</v>
+      </c>
+      <c r="G275" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H275" s="7">
+        <v>8</v>
+      </c>
+      <c r="I275" s="6">
+        <v>0</v>
+      </c>
+      <c r="J275" s="4">
+        <v>56600</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" s="4">
+        <v>274</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C276" s="6">
+        <v>5</v>
+      </c>
+      <c r="D276" s="6">
+        <f t="shared" si="8"/>
+        <v>710000000</v>
+      </c>
+      <c r="E276" s="6">
+        <v>1</v>
+      </c>
+      <c r="F276" s="22">
+        <f t="shared" si="7"/>
+        <v>4.3233378515361362E+76</v>
+      </c>
+      <c r="G276" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H276" s="16">
+        <v>8</v>
+      </c>
+      <c r="I276" s="15">
+        <v>0</v>
+      </c>
+      <c r="J276" s="13">
+        <v>56800</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" s="4">
+        <v>275</v>
+      </c>
+      <c r="B277" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" s="10">
+        <v>14</v>
+      </c>
+      <c r="D277" s="1">
+        <f t="shared" si="8"/>
+        <v>860</v>
+      </c>
+      <c r="E277" s="6">
+        <v>1</v>
+      </c>
+      <c r="F277" s="22">
+        <f t="shared" si="7"/>
+        <v>7.7820081327650458E+76</v>
+      </c>
+      <c r="G277" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H277" s="7">
+        <v>8</v>
+      </c>
+      <c r="I277" s="6">
+        <v>0</v>
+      </c>
+      <c r="J277" s="4">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" s="4">
+        <v>276</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" s="15">
+        <v>20</v>
+      </c>
+      <c r="D278" s="1">
+        <f t="shared" si="8"/>
+        <v>76000</v>
+      </c>
+      <c r="E278" s="6">
+        <v>1</v>
+      </c>
+      <c r="F278" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4007614638977082E+77</v>
+      </c>
+      <c r="G278" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H278" s="16">
+        <v>8</v>
+      </c>
+      <c r="I278" s="15">
+        <v>0</v>
+      </c>
+      <c r="J278" s="13">
+        <v>57200</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" s="4">
+        <v>277</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="19">
+        <v>31</v>
+      </c>
+      <c r="D279" s="1">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="E279" s="6">
+        <v>1</v>
+      </c>
+      <c r="F279" s="22">
+        <f t="shared" si="7"/>
+        <v>2.5213706350158747E+77</v>
+      </c>
+      <c r="G279" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H279" s="7">
+        <v>8</v>
+      </c>
+      <c r="I279" s="6">
+        <v>0</v>
+      </c>
+      <c r="J279" s="4">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" s="4">
+        <v>278</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C280" s="6">
+        <v>5</v>
+      </c>
+      <c r="D280" s="6">
+        <f t="shared" si="8"/>
+        <v>720000000</v>
+      </c>
+      <c r="E280" s="6">
+        <v>1</v>
+      </c>
+      <c r="F280" s="22">
+        <f t="shared" si="7"/>
+        <v>4.5384671430285744E+77</v>
+      </c>
+      <c r="G280" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H280" s="16">
+        <v>8</v>
+      </c>
+      <c r="I280" s="15">
+        <v>0</v>
+      </c>
+      <c r="J280" s="13">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" s="4">
+        <v>279</v>
+      </c>
+      <c r="B281" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" s="10">
+        <v>14</v>
+      </c>
+      <c r="D281" s="1">
+        <f t="shared" si="8"/>
+        <v>870</v>
+      </c>
+      <c r="E281" s="6">
+        <v>1</v>
+      </c>
+      <c r="F281" s="22">
+        <f t="shared" si="7"/>
+        <v>8.1692408574514336E+77</v>
+      </c>
+      <c r="G281" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H281" s="7">
+        <v>8</v>
+      </c>
+      <c r="I281" s="6">
+        <v>0</v>
+      </c>
+      <c r="J281" s="4">
+        <v>57800</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" s="4">
+        <v>280</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C282" s="15">
+        <v>20</v>
+      </c>
+      <c r="D282" s="1">
+        <f t="shared" si="8"/>
+        <v>78000</v>
+      </c>
+      <c r="E282" s="6">
+        <v>1</v>
+      </c>
+      <c r="F282" s="22">
+        <f t="shared" si="7"/>
+        <v>1.470463354341258E+78</v>
+      </c>
+      <c r="G282" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H282" s="16">
+        <v>8</v>
+      </c>
+      <c r="I282" s="15">
+        <v>0</v>
+      </c>
+      <c r="J282" s="13">
+        <v>58000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TowerTable2.xlsx
+++ b/Assets/06.Table/TowerTable2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKiNew\YoKIWork\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8768E9CE-EFE0-428A-8CAF-2CC4D92890D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58BD37B-2922-4B4D-A86E-AF1C840BA223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="144">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,16 +776,456 @@
     <cellStyle name="좋음" xfId="5" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="22">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color auto="1"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
       <border>
@@ -1131,11 +1571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J282"/>
+  <dimension ref="A1:J302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E262" sqref="E262"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8524,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="8">
-        <f t="shared" ref="F224:F282" si="7">F223*1.8</f>
+        <f t="shared" ref="F224:F287" si="7">F223*1.8</f>
         <v>2.2995820493441617E+63</v>
       </c>
       <c r="G224" s="8">
@@ -10007,7 +10447,7 @@
         <v>14</v>
       </c>
       <c r="D269" s="9">
-        <f t="shared" ref="D269:D282" si="8">IF(C269=5,QUOTIENT(A269,4)*10000000+30000000,
+        <f t="shared" ref="D269:D302" si="8">IF(C269=5,QUOTIENT(A269,4)*10000000+30000000,
 IF(C269=14,QUOTIENT(A269,4)*10+180,
 IF(C269=20,QUOTIENT(A269,4)*2000-62000,
 IF(C269=31,QUOTIENT(A269,4)*1-6,))))</f>
@@ -10384,14 +10824,17 @@
         <v>5</v>
       </c>
       <c r="D280" s="9">
-        <f t="shared" si="8"/>
+        <f>IF(C280=5,QUOTIENT(A280,4)*10000000+30000000,
+IF(C280=14,QUOTIENT(A280,4)*10+180,
+IF(C280=20,QUOTIENT(A280,4)*2000-62000,
+IF(C280=31,QUOTIENT(A280,4)*1-6,))))</f>
         <v>720000000</v>
       </c>
       <c r="E280" s="8">
         <v>1</v>
       </c>
       <c r="F280" s="8">
-        <f t="shared" si="7"/>
+        <f>F279*1.8</f>
         <v>4.5384671430285744E+77</v>
       </c>
       <c r="G280" s="8">
@@ -10475,11 +10918,796 @@
         <v>58000</v>
       </c>
     </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" s="8">
+        <v>281</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283" s="8">
+        <v>31</v>
+      </c>
+      <c r="D283" s="9">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="E283" s="8">
+        <v>1</v>
+      </c>
+      <c r="F283" s="8">
+        <f>F282*2</f>
+        <v>2.940926708682516E+78</v>
+      </c>
+      <c r="G283" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H283" s="8">
+        <v>8</v>
+      </c>
+      <c r="I283" s="8">
+        <v>0</v>
+      </c>
+      <c r="J283" s="8">
+        <v>58200</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" s="8">
+        <v>282</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284" s="8">
+        <v>5</v>
+      </c>
+      <c r="D284" s="9">
+        <f t="shared" si="8"/>
+        <v>730000000</v>
+      </c>
+      <c r="E284" s="8">
+        <v>1</v>
+      </c>
+      <c r="F284" s="8">
+        <f t="shared" ref="F284:F302" si="9">F283*2</f>
+        <v>5.881853417365032E+78</v>
+      </c>
+      <c r="G284" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H284" s="8">
+        <v>8</v>
+      </c>
+      <c r="I284" s="8">
+        <v>0</v>
+      </c>
+      <c r="J284" s="8">
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" s="8">
+        <v>283</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" s="8">
+        <v>14</v>
+      </c>
+      <c r="D285" s="9">
+        <f t="shared" si="8"/>
+        <v>880</v>
+      </c>
+      <c r="E285" s="8">
+        <v>1</v>
+      </c>
+      <c r="F285" s="8">
+        <f t="shared" si="9"/>
+        <v>1.1763706834730064E+79</v>
+      </c>
+      <c r="G285" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H285" s="8">
+        <v>8</v>
+      </c>
+      <c r="I285" s="8">
+        <v>0</v>
+      </c>
+      <c r="J285" s="8">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" s="8">
+        <v>284</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286" s="8">
+        <v>20</v>
+      </c>
+      <c r="D286" s="9">
+        <f t="shared" si="8"/>
+        <v>80000</v>
+      </c>
+      <c r="E286" s="8">
+        <v>1</v>
+      </c>
+      <c r="F286" s="8">
+        <f t="shared" si="9"/>
+        <v>2.3527413669460128E+79</v>
+      </c>
+      <c r="G286" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H286" s="8">
+        <v>8</v>
+      </c>
+      <c r="I286" s="8">
+        <v>0</v>
+      </c>
+      <c r="J286" s="8">
+        <v>58800</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" s="8">
+        <v>285</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="8">
+        <v>31</v>
+      </c>
+      <c r="D287" s="9">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="E287" s="8">
+        <v>1</v>
+      </c>
+      <c r="F287" s="8">
+        <f t="shared" si="9"/>
+        <v>4.7054827338920256E+79</v>
+      </c>
+      <c r="G287" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H287" s="8">
+        <v>8</v>
+      </c>
+      <c r="I287" s="8">
+        <v>0</v>
+      </c>
+      <c r="J287" s="8">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" s="8">
+        <v>286</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="8">
+        <v>5</v>
+      </c>
+      <c r="D288" s="9">
+        <f t="shared" si="8"/>
+        <v>740000000</v>
+      </c>
+      <c r="E288" s="8">
+        <v>1</v>
+      </c>
+      <c r="F288" s="8">
+        <f t="shared" si="9"/>
+        <v>9.4109654677840511E+79</v>
+      </c>
+      <c r="G288" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H288" s="8">
+        <v>8</v>
+      </c>
+      <c r="I288" s="8">
+        <v>0</v>
+      </c>
+      <c r="J288" s="8">
+        <v>59200</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" s="8">
+        <v>287</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289" s="8">
+        <v>14</v>
+      </c>
+      <c r="D289" s="9">
+        <f t="shared" si="8"/>
+        <v>890</v>
+      </c>
+      <c r="E289" s="8">
+        <v>1</v>
+      </c>
+      <c r="F289" s="8">
+        <f t="shared" si="9"/>
+        <v>1.8821930935568102E+80</v>
+      </c>
+      <c r="G289" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H289" s="8">
+        <v>8</v>
+      </c>
+      <c r="I289" s="8">
+        <v>0</v>
+      </c>
+      <c r="J289" s="8">
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" s="8">
+        <v>288</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C290" s="8">
+        <v>20</v>
+      </c>
+      <c r="D290" s="9">
+        <f t="shared" si="8"/>
+        <v>82000</v>
+      </c>
+      <c r="E290" s="8">
+        <v>1</v>
+      </c>
+      <c r="F290" s="8">
+        <f t="shared" si="9"/>
+        <v>3.7643861871136205E+80</v>
+      </c>
+      <c r="G290" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H290" s="8">
+        <v>8</v>
+      </c>
+      <c r="I290" s="8">
+        <v>0</v>
+      </c>
+      <c r="J290" s="8">
+        <v>59600</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A291" s="8">
+        <v>289</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C291" s="8">
+        <v>31</v>
+      </c>
+      <c r="D291" s="9">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="E291" s="8">
+        <v>1</v>
+      </c>
+      <c r="F291" s="8">
+        <f t="shared" si="9"/>
+        <v>7.5287723742272409E+80</v>
+      </c>
+      <c r="G291" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H291" s="8">
+        <v>8</v>
+      </c>
+      <c r="I291" s="8">
+        <v>0</v>
+      </c>
+      <c r="J291" s="8">
+        <v>59800</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A292" s="8">
+        <v>290</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292" s="8">
+        <v>5</v>
+      </c>
+      <c r="D292" s="9">
+        <f t="shared" si="8"/>
+        <v>750000000</v>
+      </c>
+      <c r="E292" s="8">
+        <v>1</v>
+      </c>
+      <c r="F292" s="8">
+        <f t="shared" si="9"/>
+        <v>1.5057544748454482E+81</v>
+      </c>
+      <c r="G292" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H292" s="8">
+        <v>8</v>
+      </c>
+      <c r="I292" s="8">
+        <v>0</v>
+      </c>
+      <c r="J292" s="8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A293" s="8">
+        <v>291</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293" s="8">
+        <v>14</v>
+      </c>
+      <c r="D293" s="9">
+        <f t="shared" si="8"/>
+        <v>900</v>
+      </c>
+      <c r="E293" s="8">
+        <v>1</v>
+      </c>
+      <c r="F293" s="8">
+        <f t="shared" si="9"/>
+        <v>3.0115089496908964E+81</v>
+      </c>
+      <c r="G293" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H293" s="8">
+        <v>8</v>
+      </c>
+      <c r="I293" s="8">
+        <v>0</v>
+      </c>
+      <c r="J293" s="8">
+        <v>60200</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A294" s="8">
+        <v>292</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C294" s="8">
+        <v>20</v>
+      </c>
+      <c r="D294" s="9">
+        <f t="shared" si="8"/>
+        <v>84000</v>
+      </c>
+      <c r="E294" s="8">
+        <v>1</v>
+      </c>
+      <c r="F294" s="8">
+        <f t="shared" si="9"/>
+        <v>6.0230178993817927E+81</v>
+      </c>
+      <c r="G294" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H294" s="8">
+        <v>8</v>
+      </c>
+      <c r="I294" s="8">
+        <v>0</v>
+      </c>
+      <c r="J294" s="8">
+        <v>60400</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A295" s="8">
+        <v>293</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C295" s="8">
+        <v>31</v>
+      </c>
+      <c r="D295" s="9">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="E295" s="8">
+        <v>1</v>
+      </c>
+      <c r="F295" s="8">
+        <f t="shared" si="9"/>
+        <v>1.2046035798763585E+82</v>
+      </c>
+      <c r="G295" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H295" s="8">
+        <v>8</v>
+      </c>
+      <c r="I295" s="8">
+        <v>0</v>
+      </c>
+      <c r="J295" s="8">
+        <v>60600</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A296" s="8">
+        <v>294</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C296" s="8">
+        <v>5</v>
+      </c>
+      <c r="D296" s="9">
+        <f t="shared" si="8"/>
+        <v>760000000</v>
+      </c>
+      <c r="E296" s="8">
+        <v>1</v>
+      </c>
+      <c r="F296" s="8">
+        <f t="shared" si="9"/>
+        <v>2.4092071597527171E+82</v>
+      </c>
+      <c r="G296" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H296" s="8">
+        <v>8</v>
+      </c>
+      <c r="I296" s="8">
+        <v>0</v>
+      </c>
+      <c r="J296" s="8">
+        <v>60800</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A297" s="8">
+        <v>295</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" s="8">
+        <v>14</v>
+      </c>
+      <c r="D297" s="9">
+        <f t="shared" si="8"/>
+        <v>910</v>
+      </c>
+      <c r="E297" s="8">
+        <v>1</v>
+      </c>
+      <c r="F297" s="8">
+        <f t="shared" si="9"/>
+        <v>4.8184143195054342E+82</v>
+      </c>
+      <c r="G297" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H297" s="8">
+        <v>8</v>
+      </c>
+      <c r="I297" s="8">
+        <v>0</v>
+      </c>
+      <c r="J297" s="8">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A298" s="8">
+        <v>296</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298" s="8">
+        <v>20</v>
+      </c>
+      <c r="D298" s="9">
+        <f t="shared" si="8"/>
+        <v>86000</v>
+      </c>
+      <c r="E298" s="8">
+        <v>1</v>
+      </c>
+      <c r="F298" s="8">
+        <f t="shared" si="9"/>
+        <v>9.6368286390108684E+82</v>
+      </c>
+      <c r="G298" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H298" s="8">
+        <v>8</v>
+      </c>
+      <c r="I298" s="8">
+        <v>0</v>
+      </c>
+      <c r="J298" s="8">
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A299" s="8">
+        <v>297</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" s="8">
+        <v>31</v>
+      </c>
+      <c r="D299" s="9">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="E299" s="8">
+        <v>1</v>
+      </c>
+      <c r="F299" s="8">
+        <f t="shared" si="9"/>
+        <v>1.9273657278021737E+83</v>
+      </c>
+      <c r="G299" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H299" s="8">
+        <v>8</v>
+      </c>
+      <c r="I299" s="8">
+        <v>0</v>
+      </c>
+      <c r="J299" s="8">
+        <v>61400</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A300" s="8">
+        <v>298</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C300" s="8">
+        <v>5</v>
+      </c>
+      <c r="D300" s="9">
+        <f t="shared" si="8"/>
+        <v>770000000</v>
+      </c>
+      <c r="E300" s="8">
+        <v>1</v>
+      </c>
+      <c r="F300" s="8">
+        <f t="shared" si="9"/>
+        <v>3.8547314556043474E+83</v>
+      </c>
+      <c r="G300" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H300" s="8">
+        <v>8</v>
+      </c>
+      <c r="I300" s="8">
+        <v>0</v>
+      </c>
+      <c r="J300" s="8">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301" s="8">
+        <v>299</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" s="8">
+        <v>14</v>
+      </c>
+      <c r="D301" s="9">
+        <f t="shared" si="8"/>
+        <v>920</v>
+      </c>
+      <c r="E301" s="8">
+        <v>1</v>
+      </c>
+      <c r="F301" s="8">
+        <f t="shared" si="9"/>
+        <v>7.7094629112086947E+83</v>
+      </c>
+      <c r="G301" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H301" s="8">
+        <v>8</v>
+      </c>
+      <c r="I301" s="8">
+        <v>0</v>
+      </c>
+      <c r="J301" s="8">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A302" s="8">
+        <v>300</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" s="8">
+        <v>20</v>
+      </c>
+      <c r="D302" s="9">
+        <f t="shared" si="8"/>
+        <v>88000</v>
+      </c>
+      <c r="E302" s="8">
+        <v>1</v>
+      </c>
+      <c r="F302" s="8">
+        <f t="shared" si="9"/>
+        <v>1.5418925822417389E+84</v>
+      </c>
+      <c r="G302" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H302" s="8">
+        <v>8</v>
+      </c>
+      <c r="I302" s="8">
+        <v>0</v>
+      </c>
+      <c r="J302" s="8">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J282">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A2:J282 A283:A302 D283:E302 G283:J302">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>$C2=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$C283=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C284:C286">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$C284=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$C287=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C288:C290">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$C288=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$C291=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292:C294">
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$C292=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C295">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$C295=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296:C298">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$C296=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C299">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$C299=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C300:C302">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$C300=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B283">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C283=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B284:B286">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C284=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B287">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$C287=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B288:B290">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C288=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B291">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C291=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B292:B294">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C292=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B295">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C295=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B296:B298">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C296=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B299">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C299=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B300:B302">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C300=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F283:F302">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C283=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
